--- a/prisma/data/01.BangtheodoiBHXH-2025.xlsx
+++ b/prisma/data/01.BangtheodoiBHXH-2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VANTHU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\next-mantine-sqllite\prisma\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004AA387-A9C7-40CE-A002-750F845D6BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D316F-18B2-42F7-BB12-6C793DD04604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foxz" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId3"/>
     <sheet name="Sheet1 (2)" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="Bangtheodoi" sheetId="1" r:id="rId5"/>
-    <sheet name="Bang do" sheetId="2" r:id="rId6"/>
-    <sheet name="Sosanhheso" sheetId="3" r:id="rId7"/>
-    <sheet name="Thoi viec" sheetId="7" r:id="rId8"/>
-    <sheet name="Bang do (2)" sheetId="10" r:id="rId9"/>
-    <sheet name="schema" sheetId="11" r:id="rId10"/>
+    <sheet name="schema" sheetId="11" r:id="rId6"/>
+    <sheet name="Bang do" sheetId="2" r:id="rId7"/>
+    <sheet name="Sosanhheso" sheetId="3" r:id="rId8"/>
+    <sheet name="Thoi viec" sheetId="7" r:id="rId9"/>
+    <sheet name="Bang do (2)" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId11"/>
@@ -31,19 +31,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Bangtheodoi!$A$7:$N$125</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -827,7 +818,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="1042">
   <si>
     <t xml:space="preserve">CÔNG TY CỔ PHẦN </t>
   </si>
@@ -3936,9 +3927,6 @@
     <t>ten</t>
   </si>
   <si>
-    <t>TheoDoiBHXH</t>
-  </si>
-  <si>
     <t>ThongTinBHXH</t>
   </si>
   <si>
@@ -3951,9 +3939,6 @@
     <t>nhanVien</t>
   </si>
   <si>
-    <t>nhân viên + thông tin HĐ</t>
-  </si>
-  <si>
     <t>mucLuong</t>
   </si>
   <si>
@@ -3961,9 +3946,6 @@
   </si>
   <si>
     <t>thongTinBHXH</t>
-  </si>
-  <si>
-    <t>hiện tại và nâng bậc sau</t>
   </si>
   <si>
     <t>bacNgachHienTai</t>
@@ -4394,7 +4376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4446,12 +4428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5102,7 +5078,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -5636,18 +5612,47 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5659,21 +5664,30 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5697,95 +5711,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5808,6 +5738,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5816,6 +5749,24 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5826,8 +5777,56 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5838,31 +5837,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -9594,257 +9568,2983 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D79E4C4-5854-4DBA-83EE-8D5F4AB4900A}">
-  <dimension ref="B9:P29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562E2497-F303-4ABF-AD8A-9677A046769D}">
+  <dimension ref="A1:BD120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="40" style="42" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="9"/>
+    <col min="14" max="19" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="9" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" style="9" customWidth="1"/>
+    <col min="25" max="32" width="9.140625" style="9"/>
+    <col min="33" max="33" width="27.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="34" max="39" width="9.140625" style="9"/>
+    <col min="40" max="40" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="34.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="43" max="49" width="9.140625" style="9"/>
+    <col min="50" max="50" width="86.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="11.42578125" style="9" customWidth="1"/>
+    <col min="52" max="53" width="9.140625" style="9"/>
+    <col min="54" max="54" width="45.28515625" style="9" customWidth="1"/>
+    <col min="55" max="55" width="11" style="9" customWidth="1"/>
+    <col min="56" max="56" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="262" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="73" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F10" s="263" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G10" s="264"/>
-      <c r="I10" s="265" t="s">
-        <v>1004</v>
-      </c>
-      <c r="L10" s="266" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="73" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F11" s="267" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G11" s="268" t="s">
-        <v>1008</v>
-      </c>
-      <c r="I11" s="269" t="s">
-        <v>1007</v>
-      </c>
-      <c r="L11" s="73" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="73" t="s">
-        <v>1010</v>
-      </c>
-      <c r="F12" s="270" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I12" s="271" t="s">
-        <v>1013</v>
-      </c>
-      <c r="L12" s="73" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="269" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I13" s="272" t="s">
-        <v>1016</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1017</v>
-      </c>
-      <c r="L13" s="73" t="s">
-        <v>1018</v>
-      </c>
-      <c r="N13" s="273" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="79" t="s">
-        <v>1020</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="N14" s="73" t="s">
-        <v>1022</v>
-      </c>
-      <c r="O14" s="274" t="s">
-        <v>1023</v>
-      </c>
-      <c r="P14" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D15" s="275" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L15" s="276" t="s">
-        <v>1027</v>
-      </c>
-      <c r="N15" s="73" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="277" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D16" s="73" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1030</v>
-      </c>
-      <c r="L16" s="73" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N16" s="73" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="73" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D17" s="278" t="s">
-        <v>1033</v>
-      </c>
-      <c r="L17" s="73" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N17" s="279" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="73" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D18" s="280" t="s">
-        <v>1036</v>
-      </c>
-      <c r="I18" s="281" t="s">
-        <v>1037</v>
-      </c>
-      <c r="L18" s="271" t="s">
-        <v>1038</v>
-      </c>
-      <c r="N18" s="268"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="269" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D19" s="282" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I19" s="267" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>1040</v>
-      </c>
-      <c r="I20" s="283" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1042</v>
-      </c>
-      <c r="L20" s="70" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F21" s="284" t="s">
-        <v>1007</v>
-      </c>
-      <c r="G21" s="268"/>
-      <c r="L21" s="73" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="285"/>
-      <c r="C22" s="286"/>
-      <c r="F22" s="283" t="s">
-        <v>1011</v>
-      </c>
-      <c r="L22" s="73" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="286"/>
-      <c r="C23" s="286"/>
-      <c r="F23" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="286"/>
-      <c r="C24" s="286"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="286"/>
-      <c r="C25" s="286"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="286"/>
-      <c r="C26" s="286"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="286"/>
-      <c r="C27" s="286"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="286"/>
-      <c r="C28" s="286"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="286"/>
-      <c r="C29" s="286"/>
+    <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="270" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="271" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="273" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="252" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="252"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="270"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="L2" s="9">
+        <v>4410000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>556</v>
+      </c>
+      <c r="B3" s="161" t="s">
+        <v>944</v>
+      </c>
+      <c r="C3" s="162" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="163">
+        <v>3.6</v>
+      </c>
+      <c r="E3" s="163">
+        <v>3.8</v>
+      </c>
+      <c r="F3" s="164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="177">
+        <f>$L$2*D3</f>
+        <v>15876000</v>
+      </c>
+      <c r="E4" s="177">
+        <f>$L$2*E3</f>
+        <v>16758000</v>
+      </c>
+      <c r="F4" s="178">
+        <f>$L$2*F3</f>
+        <v>17640000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="179">
+        <f>$L$2*D5</f>
+        <v>11025000</v>
+      </c>
+      <c r="E6" s="179">
+        <f>$L$2*E5</f>
+        <v>11598300</v>
+      </c>
+      <c r="F6" s="180">
+        <f>$L$2*F5</f>
+        <v>12215700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="171"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="181">
+        <f>$L$2*D7</f>
+        <v>9834300</v>
+      </c>
+      <c r="E8" s="181">
+        <f>$L$2*E7</f>
+        <v>10363500</v>
+      </c>
+      <c r="F8" s="182">
+        <f>$L$2*F7</f>
+        <v>10892700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="179">
+        <f>$L$2*D9</f>
+        <v>9216900</v>
+      </c>
+      <c r="E10" s="179">
+        <f>$L$2*E9</f>
+        <v>9702000</v>
+      </c>
+      <c r="F10" s="180">
+        <f>$L$2*F9</f>
+        <v>10187100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="173" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" s="174" t="s">
+        <v>944</v>
+      </c>
+      <c r="C11" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="175">
+        <f>365*3</f>
+        <v>1095</v>
+      </c>
+      <c r="E11" s="175">
+        <f t="shared" ref="E11:F14" si="0">365*3</f>
+        <v>1095</v>
+      </c>
+      <c r="F11" s="176">
+        <f t="shared" si="0"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="167" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="168" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="168" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="168">
+        <f>365*3</f>
+        <v>1095</v>
+      </c>
+      <c r="E12" s="168">
+        <f t="shared" si="0"/>
+        <v>1095</v>
+      </c>
+      <c r="F12" s="169">
+        <f t="shared" si="0"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" ref="D13:D14" si="1">365*3</f>
+        <v>1095</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="0"/>
+        <v>1095</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="24">
+        <f t="shared" si="1"/>
+        <v>1095</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" si="0"/>
+        <v>1095</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="243" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="275"/>
+      <c r="C16" s="275"/>
+      <c r="D16" s="275"/>
+      <c r="E16" s="275"/>
+      <c r="F16" s="275"/>
+      <c r="G16" s="275"/>
+      <c r="H16" s="275"/>
+      <c r="I16" s="275"/>
+      <c r="J16" s="275"/>
+      <c r="K16" s="244"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="270" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="252" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="257" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="259" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="260"/>
+      <c r="F17" s="260"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="260"/>
+      <c r="I17" s="260"/>
+      <c r="J17" s="260"/>
+      <c r="K17" s="261"/>
+    </row>
+    <row r="18" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="270"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="257"/>
+      <c r="D18" s="276"/>
+      <c r="E18" s="277"/>
+      <c r="F18" s="277"/>
+      <c r="G18" s="277"/>
+      <c r="H18" s="277"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="277"/>
+      <c r="K18" s="278"/>
+    </row>
+    <row r="19" spans="1:24" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="265" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="265"/>
+      <c r="B20" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="49"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="265"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="D21" s="179">
+        <f>$L$2*D20</f>
+        <v>7938000</v>
+      </c>
+      <c r="E21" s="179">
+        <f t="shared" ref="E21:F21" si="2">$L$2*E20</f>
+        <v>8334900</v>
+      </c>
+      <c r="F21" s="179">
+        <f t="shared" si="2"/>
+        <v>8775900</v>
+      </c>
+      <c r="G21" s="183">
+        <f>$L$2*G20</f>
+        <v>9216900</v>
+      </c>
+      <c r="H21" s="49"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="265"/>
+      <c r="B22" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="23">
+        <f t="shared" ref="D22:G22" si="3">365*3</f>
+        <v>1095</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
+      <c r="F22" s="23">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
+      <c r="G22" s="28">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+    </row>
+    <row r="23" spans="1:24" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="265" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="142"/>
+      <c r="O23" s="142"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="142"/>
+      <c r="U23" s="142"/>
+      <c r="V23" s="142"/>
+      <c r="W23" s="142"/>
+      <c r="X23" s="142"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="265"/>
+      <c r="B24" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="N24" s="142"/>
+      <c r="O24" s="142"/>
+      <c r="P24" s="142"/>
+      <c r="Q24" s="142"/>
+      <c r="R24" s="142"/>
+      <c r="S24" s="142"/>
+      <c r="T24" s="142"/>
+      <c r="U24" s="142"/>
+      <c r="V24" s="142"/>
+      <c r="W24" s="142"/>
+      <c r="X24" s="142"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="265"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="D25" s="179">
+        <f>$L$2*D24</f>
+        <v>5247900</v>
+      </c>
+      <c r="E25" s="179">
+        <f t="shared" ref="E25:J25" si="4">$L$2*E24</f>
+        <v>5512500</v>
+      </c>
+      <c r="F25" s="179">
+        <f t="shared" si="4"/>
+        <v>5821200</v>
+      </c>
+      <c r="G25" s="179">
+        <f t="shared" si="4"/>
+        <v>6129900</v>
+      </c>
+      <c r="H25" s="179">
+        <f t="shared" si="4"/>
+        <v>6438600</v>
+      </c>
+      <c r="I25" s="179">
+        <f t="shared" si="4"/>
+        <v>6791400</v>
+      </c>
+      <c r="J25" s="179">
+        <f t="shared" si="4"/>
+        <v>7144200.0000000009</v>
+      </c>
+      <c r="K25" s="182">
+        <f>$L$2*K24</f>
+        <v>7541100</v>
+      </c>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="142"/>
+      <c r="Q25" s="142"/>
+      <c r="R25" s="142"/>
+      <c r="S25" s="142"/>
+      <c r="T25" s="142"/>
+      <c r="U25" s="142"/>
+      <c r="V25" s="142"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="142"/>
+    </row>
+    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="265"/>
+      <c r="B26" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="23">
+        <f>365*3</f>
+        <v>1095</v>
+      </c>
+      <c r="E26" s="23">
+        <f t="shared" ref="E26:K26" si="5">365*3</f>
+        <v>1095</v>
+      </c>
+      <c r="F26" s="23">
+        <f t="shared" si="5"/>
+        <v>1095</v>
+      </c>
+      <c r="G26" s="23">
+        <f t="shared" si="5"/>
+        <v>1095</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" si="5"/>
+        <v>1095</v>
+      </c>
+      <c r="I26" s="29">
+        <f t="shared" si="5"/>
+        <v>1095</v>
+      </c>
+      <c r="J26" s="29">
+        <f t="shared" si="5"/>
+        <v>1095</v>
+      </c>
+      <c r="K26" s="33">
+        <f t="shared" si="5"/>
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="265" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="54"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="265"/>
+      <c r="B28" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I28" s="49"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="265"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="s">
+        <v>991</v>
+      </c>
+      <c r="D29" s="179">
+        <f>$L$2*D28</f>
+        <v>4983299.9999999991</v>
+      </c>
+      <c r="E29" s="179">
+        <f t="shared" ref="E29:G29" si="6">$L$2*E28</f>
+        <v>5247900</v>
+      </c>
+      <c r="F29" s="179">
+        <f t="shared" si="6"/>
+        <v>5512500</v>
+      </c>
+      <c r="G29" s="179">
+        <f t="shared" si="6"/>
+        <v>5821200</v>
+      </c>
+      <c r="H29" s="183">
+        <f>$L$2*H28</f>
+        <v>6129900</v>
+      </c>
+      <c r="I29" s="49"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="265"/>
+      <c r="B30" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="30">
+        <f>365*2</f>
+        <v>730</v>
+      </c>
+      <c r="E30" s="30">
+        <f>365*2</f>
+        <v>730</v>
+      </c>
+      <c r="F30" s="23">
+        <f t="shared" ref="F30:H30" si="7">365*3</f>
+        <v>1095</v>
+      </c>
+      <c r="G30" s="23">
+        <f t="shared" si="7"/>
+        <v>1095</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="7"/>
+        <v>1095</v>
+      </c>
+      <c r="I30" s="49"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="256" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="256"/>
+      <c r="B32" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" s="49"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="249"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
+        <v>991</v>
+      </c>
+      <c r="D33" s="181">
+        <f>$L$2*D32</f>
+        <v>4718700</v>
+      </c>
+      <c r="E33" s="181">
+        <f t="shared" ref="E33:G33" si="8">$L$2*E32</f>
+        <v>4983299.9999999991</v>
+      </c>
+      <c r="F33" s="181">
+        <f t="shared" si="8"/>
+        <v>5247900</v>
+      </c>
+      <c r="G33" s="181">
+        <f t="shared" si="8"/>
+        <v>5512500</v>
+      </c>
+      <c r="H33" s="184">
+        <f>L2*H32</f>
+        <v>5821200</v>
+      </c>
+      <c r="I33" s="49"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="279"/>
+      <c r="B34" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" s="31">
+        <f>365*2</f>
+        <v>730</v>
+      </c>
+      <c r="E34" s="31">
+        <f>365*2</f>
+        <v>730</v>
+      </c>
+      <c r="F34" s="24">
+        <f t="shared" ref="F34:H34" si="9">365*3</f>
+        <v>1095</v>
+      </c>
+      <c r="G34" s="24">
+        <f t="shared" si="9"/>
+        <v>1095</v>
+      </c>
+      <c r="H34" s="51">
+        <f t="shared" si="9"/>
+        <v>1095</v>
+      </c>
+      <c r="I34" s="49"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="267" t="s">
+        <v>192</v>
+      </c>
+      <c r="B36" s="268"/>
+      <c r="C36" s="268"/>
+      <c r="D36" s="268"/>
+      <c r="E36" s="268"/>
+      <c r="F36" s="268"/>
+      <c r="G36" s="268"/>
+      <c r="H36" s="268"/>
+      <c r="I36" s="268"/>
+      <c r="J36" s="269"/>
+    </row>
+    <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="280" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="252" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="252" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="252" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="252"/>
+      <c r="F37" s="252"/>
+      <c r="G37" s="252"/>
+      <c r="H37" s="252"/>
+      <c r="I37" s="271"/>
+      <c r="J37" s="281"/>
+    </row>
+    <row r="38" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="280"/>
+      <c r="B38" s="252"/>
+      <c r="C38" s="252"/>
+      <c r="D38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="54"/>
+      <c r="J38" s="55"/>
+    </row>
+    <row r="39" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="265" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I39" s="49"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="265"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="186" t="s">
+        <v>991</v>
+      </c>
+      <c r="D40" s="179">
+        <f>$L$2*D39</f>
+        <v>5821200</v>
+      </c>
+      <c r="E40" s="179">
+        <f t="shared" ref="E40:G40" si="10">$L$2*E39</f>
+        <v>6129900</v>
+      </c>
+      <c r="F40" s="179">
+        <f t="shared" si="10"/>
+        <v>6438600</v>
+      </c>
+      <c r="G40" s="179">
+        <f t="shared" si="10"/>
+        <v>6791400</v>
+      </c>
+      <c r="H40" s="184">
+        <f>$L$2*H39</f>
+        <v>7144200.0000000009</v>
+      </c>
+      <c r="I40" s="49"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="265"/>
+      <c r="B41" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="23">
+        <v>730</v>
+      </c>
+      <c r="E41" s="23">
+        <v>1095</v>
+      </c>
+      <c r="F41" s="23">
+        <v>1095</v>
+      </c>
+      <c r="G41" s="28">
+        <v>1095</v>
+      </c>
+      <c r="H41" s="13">
+        <v>1095</v>
+      </c>
+      <c r="I41" s="49"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="265" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="37"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="265"/>
+      <c r="B43" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="265"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="186" t="s">
+        <v>991</v>
+      </c>
+      <c r="D44" s="179">
+        <f>$L$2*D43</f>
+        <v>5247900</v>
+      </c>
+      <c r="E44" s="179">
+        <f t="shared" ref="E44:F44" si="11">$L$2*E43</f>
+        <v>5512500</v>
+      </c>
+      <c r="F44" s="179">
+        <f t="shared" si="11"/>
+        <v>5821200</v>
+      </c>
+      <c r="G44" s="182">
+        <f>$L$2*G43</f>
+        <v>6129900</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="265"/>
+      <c r="B45" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="23">
+        <v>730</v>
+      </c>
+      <c r="E45" s="23">
+        <v>730</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1095</v>
+      </c>
+      <c r="G45" s="13">
+        <v>1095</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="265" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="265"/>
+      <c r="B47" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="49"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="265"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="186" t="s">
+        <v>991</v>
+      </c>
+      <c r="D48" s="179">
+        <f>$L$2*D47</f>
+        <v>4983299.9999999991</v>
+      </c>
+      <c r="E48" s="183">
+        <f>$L$2*E47</f>
+        <v>5247900</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:56" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="265"/>
+      <c r="B49" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D49" s="23">
+        <v>730</v>
+      </c>
+      <c r="E49" s="28">
+        <v>730</v>
+      </c>
+      <c r="F49" s="57"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="58"/>
+    </row>
+    <row r="50" spans="1:56" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="265" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="44"/>
+    </row>
+    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A51" s="265"/>
+      <c r="B51" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A52" s="247"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="185" t="s">
+        <v>991</v>
+      </c>
+      <c r="D52" s="181">
+        <f>$L$2*D51</f>
+        <v>4983299.9999999991</v>
+      </c>
+      <c r="E52" s="181">
+        <f t="shared" ref="E52:I52" si="12">$L$2*E51</f>
+        <v>5247900</v>
+      </c>
+      <c r="F52" s="181">
+        <f t="shared" si="12"/>
+        <v>5512500</v>
+      </c>
+      <c r="G52" s="181">
+        <f t="shared" si="12"/>
+        <v>5821200</v>
+      </c>
+      <c r="H52" s="181">
+        <f t="shared" si="12"/>
+        <v>6129900</v>
+      </c>
+      <c r="I52" s="181">
+        <f t="shared" si="12"/>
+        <v>6438600</v>
+      </c>
+      <c r="J52" s="182">
+        <f>$L$2*J51</f>
+        <v>6791400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="266"/>
+      <c r="B53" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="24">
+        <v>730</v>
+      </c>
+      <c r="E53" s="24">
+        <v>730</v>
+      </c>
+      <c r="F53" s="24">
+        <v>730</v>
+      </c>
+      <c r="G53" s="24">
+        <v>1095</v>
+      </c>
+      <c r="H53" s="24">
+        <v>1095</v>
+      </c>
+      <c r="I53" s="24">
+        <v>1095</v>
+      </c>
+      <c r="J53" s="13">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:56" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="267" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="268"/>
+      <c r="C55" s="268"/>
+      <c r="D55" s="268"/>
+      <c r="E55" s="268"/>
+      <c r="F55" s="268"/>
+      <c r="G55" s="268"/>
+      <c r="H55" s="269"/>
+    </row>
+    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A56" s="270" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="252" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="252" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="259" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="260"/>
+      <c r="F56" s="260"/>
+      <c r="G56" s="260"/>
+      <c r="H56" s="261"/>
+    </row>
+    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A57" s="270"/>
+      <c r="B57" s="252"/>
+      <c r="C57" s="252"/>
+      <c r="D57" s="262"/>
+      <c r="E57" s="263"/>
+      <c r="F57" s="263"/>
+      <c r="G57" s="263"/>
+      <c r="H57" s="264"/>
+    </row>
+    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A58" s="249" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="23"/>
+      <c r="D58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A59" s="250"/>
+      <c r="B59" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A60" s="250"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="185" t="s">
+        <v>991</v>
+      </c>
+      <c r="D60" s="181">
+        <f>$L$2*D59</f>
+        <v>4718700</v>
+      </c>
+      <c r="E60" s="181">
+        <f t="shared" ref="E60:G60" si="13">$L$2*E59</f>
+        <v>4983299.9999999991</v>
+      </c>
+      <c r="F60" s="181">
+        <f t="shared" si="13"/>
+        <v>5247900</v>
+      </c>
+      <c r="G60" s="181">
+        <f t="shared" si="13"/>
+        <v>5512500</v>
+      </c>
+      <c r="H60" s="182">
+        <f>$L$2*H59</f>
+        <v>5821200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:56" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="251"/>
+      <c r="B61" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="24">
+        <v>730</v>
+      </c>
+      <c r="E61" s="24">
+        <v>730</v>
+      </c>
+      <c r="F61" s="24">
+        <v>1095</v>
+      </c>
+      <c r="G61" s="24">
+        <v>1095</v>
+      </c>
+      <c r="H61" s="13">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="62" spans="1:56" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="36"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
+      <c r="Z62" s="9"/>
+      <c r="AA62" s="9"/>
+      <c r="AB62" s="9"/>
+      <c r="AC62" s="9"/>
+      <c r="AD62" s="9"/>
+      <c r="AE62" s="9"/>
+      <c r="AF62" s="9"/>
+      <c r="AG62" s="9"/>
+      <c r="AH62" s="9"/>
+      <c r="AI62" s="9"/>
+      <c r="AJ62" s="9"/>
+      <c r="AK62" s="9"/>
+      <c r="AL62" s="9"/>
+      <c r="AM62" s="9"/>
+      <c r="AN62" s="9"/>
+      <c r="AP62" s="9"/>
+      <c r="AQ62" s="9"/>
+      <c r="AR62" s="9"/>
+      <c r="AS62" s="9"/>
+      <c r="AT62" s="9"/>
+      <c r="AU62" s="9"/>
+      <c r="AV62" s="9"/>
+      <c r="AW62" s="9"/>
+      <c r="AX62" s="9"/>
+      <c r="AY62" s="9"/>
+      <c r="AZ62" s="9"/>
+      <c r="BA62" s="9"/>
+      <c r="BB62" s="9"/>
+      <c r="BC62" s="9"/>
+      <c r="BD62" s="9"/>
+    </row>
+    <row r="63" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="245" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="246"/>
+      <c r="C63" s="246"/>
+      <c r="D63" s="246"/>
+      <c r="E63" s="246"/>
+      <c r="F63" s="246"/>
+      <c r="G63" s="246"/>
+      <c r="H63" s="255"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
+      <c r="Z63" s="9"/>
+      <c r="AA63" s="9"/>
+      <c r="AB63" s="9"/>
+      <c r="AC63" s="9"/>
+      <c r="AD63" s="9"/>
+      <c r="AE63" s="9"/>
+      <c r="AF63" s="9"/>
+      <c r="AG63" s="9"/>
+      <c r="AH63" s="9"/>
+      <c r="AI63" s="9"/>
+      <c r="AJ63" s="9"/>
+      <c r="AK63" s="9"/>
+      <c r="AL63" s="9"/>
+      <c r="AM63" s="9"/>
+      <c r="AN63" s="9"/>
+      <c r="AP63" s="9"/>
+      <c r="AQ63" s="9"/>
+      <c r="AR63" s="9"/>
+      <c r="AS63" s="9"/>
+      <c r="AT63" s="9"/>
+      <c r="AU63" s="9"/>
+      <c r="AV63" s="9"/>
+      <c r="AW63" s="9"/>
+      <c r="AX63" s="9"/>
+      <c r="AY63" s="9"/>
+      <c r="AZ63" s="9"/>
+      <c r="BA63" s="9"/>
+      <c r="BB63" s="9"/>
+      <c r="BC63" s="9"/>
+      <c r="BD63" s="9"/>
+    </row>
+    <row r="64" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="256" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" s="252" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" s="257" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="252" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="252"/>
+      <c r="F64" s="252"/>
+      <c r="G64" s="252"/>
+      <c r="H64" s="258"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
+      <c r="Z64" s="9"/>
+      <c r="AA64" s="9"/>
+      <c r="AB64" s="9"/>
+      <c r="AC64" s="9"/>
+      <c r="AD64" s="9"/>
+      <c r="AE64" s="9"/>
+      <c r="AF64" s="9"/>
+      <c r="AG64" s="9"/>
+      <c r="AH64" s="9"/>
+      <c r="AI64" s="9"/>
+      <c r="AJ64" s="9"/>
+      <c r="AK64" s="9"/>
+      <c r="AL64" s="9"/>
+      <c r="AM64" s="9"/>
+      <c r="AN64" s="9"/>
+      <c r="AP64" s="9"/>
+      <c r="AQ64" s="9"/>
+      <c r="AR64" s="9"/>
+      <c r="AS64" s="9"/>
+      <c r="AT64" s="9"/>
+      <c r="AU64" s="9"/>
+      <c r="AV64" s="9"/>
+      <c r="AW64" s="9"/>
+      <c r="AX64" s="9"/>
+      <c r="AY64" s="9"/>
+      <c r="AZ64" s="9"/>
+      <c r="BA64" s="9"/>
+      <c r="BB64" s="9"/>
+      <c r="BC64" s="9"/>
+      <c r="BD64" s="9"/>
+    </row>
+    <row r="65" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="256"/>
+      <c r="B65" s="252"/>
+      <c r="C65" s="257"/>
+      <c r="D65" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
+      <c r="Z65" s="9"/>
+      <c r="AA65" s="9"/>
+      <c r="AB65" s="9"/>
+      <c r="AC65" s="9"/>
+      <c r="AD65" s="9"/>
+      <c r="AE65" s="9"/>
+      <c r="AF65" s="9"/>
+      <c r="AG65" s="9"/>
+      <c r="AH65" s="9"/>
+      <c r="AI65" s="9"/>
+      <c r="AJ65" s="9"/>
+      <c r="AK65" s="9"/>
+      <c r="AL65" s="9"/>
+      <c r="AM65" s="9"/>
+      <c r="AN65" s="9"/>
+      <c r="AP65" s="9"/>
+      <c r="AQ65" s="9"/>
+      <c r="AR65" s="9"/>
+      <c r="AS65" s="9"/>
+      <c r="AT65" s="9"/>
+      <c r="AU65" s="9"/>
+      <c r="AV65" s="9"/>
+      <c r="AW65" s="9"/>
+      <c r="AX65" s="9"/>
+      <c r="AY65" s="9"/>
+      <c r="AZ65" s="9"/>
+      <c r="BA65" s="9"/>
+      <c r="BB65" s="9"/>
+      <c r="BC65" s="9"/>
+      <c r="BD65" s="9"/>
+    </row>
+    <row r="66" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="247" t="s">
+        <v>179</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J66" s="8"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
+      <c r="Z66" s="9"/>
+      <c r="AA66" s="9"/>
+      <c r="AB66" s="9"/>
+      <c r="AC66" s="9"/>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="9"/>
+      <c r="AF66" s="9"/>
+      <c r="AG66" s="9"/>
+      <c r="AH66" s="9"/>
+      <c r="AI66" s="9"/>
+      <c r="AJ66" s="9"/>
+      <c r="AK66" s="9"/>
+      <c r="AL66" s="9"/>
+      <c r="AM66" s="9"/>
+      <c r="AN66" s="9"/>
+      <c r="AP66" s="9"/>
+      <c r="AQ66" s="9"/>
+      <c r="AR66" s="9"/>
+      <c r="AS66" s="9"/>
+      <c r="AT66" s="9"/>
+      <c r="AU66" s="9"/>
+      <c r="AV66" s="9"/>
+      <c r="AW66" s="9"/>
+      <c r="AX66" s="9"/>
+      <c r="AY66" s="9"/>
+      <c r="AZ66" s="9"/>
+      <c r="BA66" s="9"/>
+      <c r="BB66" s="9"/>
+      <c r="BC66" s="9"/>
+      <c r="BD66" s="9"/>
+    </row>
+    <row r="67" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="283"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="187" t="s">
+        <v>991</v>
+      </c>
+      <c r="D67" s="179">
+        <f>$L$2*D66</f>
+        <v>4718700</v>
+      </c>
+      <c r="E67" s="179">
+        <f t="shared" ref="E67:G67" si="14">$L$2*E66</f>
+        <v>4983299.9999999991</v>
+      </c>
+      <c r="F67" s="179">
+        <f t="shared" si="14"/>
+        <v>5247900</v>
+      </c>
+      <c r="G67" s="179">
+        <f t="shared" si="14"/>
+        <v>5512500</v>
+      </c>
+      <c r="H67" s="182">
+        <f>$L$2*H66</f>
+        <v>5821200</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
+      <c r="Z67" s="9"/>
+      <c r="AA67" s="9"/>
+      <c r="AB67" s="9"/>
+      <c r="AC67" s="9"/>
+      <c r="AD67" s="9"/>
+      <c r="AE67" s="9"/>
+      <c r="AF67" s="9"/>
+      <c r="AG67" s="9"/>
+      <c r="AH67" s="9"/>
+      <c r="AI67" s="9"/>
+      <c r="AJ67" s="9"/>
+      <c r="AK67" s="9"/>
+      <c r="AL67" s="9"/>
+      <c r="AM67" s="9"/>
+      <c r="AN67" s="9"/>
+      <c r="AP67" s="9"/>
+      <c r="AQ67" s="9"/>
+      <c r="AR67" s="9"/>
+      <c r="AS67" s="9"/>
+      <c r="AT67" s="9"/>
+      <c r="AU67" s="9"/>
+      <c r="AV67" s="9"/>
+      <c r="AW67" s="9"/>
+      <c r="AX67" s="9"/>
+      <c r="AY67" s="9"/>
+      <c r="AZ67" s="9"/>
+      <c r="BA67" s="9"/>
+      <c r="BB67" s="9"/>
+      <c r="BC67" s="9"/>
+      <c r="BD67" s="9"/>
+    </row>
+    <row r="68" spans="1:56" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="248"/>
+      <c r="B68" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="23">
+        <v>730</v>
+      </c>
+      <c r="E68" s="23">
+        <v>730</v>
+      </c>
+      <c r="F68" s="23">
+        <v>1095</v>
+      </c>
+      <c r="G68" s="29">
+        <v>1095</v>
+      </c>
+      <c r="H68" s="13">
+        <v>1095</v>
+      </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="9"/>
+      <c r="AA68" s="9"/>
+      <c r="AB68" s="9"/>
+      <c r="AC68" s="9"/>
+      <c r="AD68" s="9"/>
+      <c r="AE68" s="9"/>
+      <c r="AF68" s="9"/>
+      <c r="AG68" s="9"/>
+      <c r="AH68" s="9"/>
+      <c r="AI68" s="9"/>
+      <c r="AJ68" s="9"/>
+      <c r="AK68" s="9"/>
+      <c r="AL68" s="9"/>
+      <c r="AM68" s="9"/>
+      <c r="AN68" s="9"/>
+      <c r="AP68" s="9"/>
+      <c r="AQ68" s="9"/>
+      <c r="AR68" s="9"/>
+      <c r="AS68" s="9"/>
+      <c r="AT68" s="9"/>
+      <c r="AU68" s="9"/>
+      <c r="AV68" s="9"/>
+      <c r="AW68" s="9"/>
+      <c r="AX68" s="9"/>
+      <c r="AY68" s="9"/>
+      <c r="AZ68" s="9"/>
+      <c r="BA68" s="9"/>
+      <c r="BB68" s="9"/>
+      <c r="BC68" s="9"/>
+      <c r="BD68" s="9"/>
+    </row>
+    <row r="69" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="249" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="50"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
+      <c r="Z69" s="9"/>
+      <c r="AA69" s="9"/>
+      <c r="AB69" s="9"/>
+      <c r="AC69" s="9"/>
+      <c r="AD69" s="9"/>
+      <c r="AE69" s="9"/>
+      <c r="AF69" s="9"/>
+      <c r="AG69" s="9"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="9"/>
+      <c r="AJ69" s="9"/>
+      <c r="AK69" s="9"/>
+      <c r="AL69" s="9"/>
+      <c r="AM69" s="9"/>
+      <c r="AN69" s="9"/>
+      <c r="AP69" s="9"/>
+      <c r="AQ69" s="9"/>
+      <c r="AR69" s="9"/>
+      <c r="AS69" s="9"/>
+      <c r="AT69" s="9"/>
+      <c r="AU69" s="9"/>
+      <c r="AV69" s="9"/>
+      <c r="AW69" s="9"/>
+      <c r="AX69" s="9"/>
+      <c r="AY69" s="9"/>
+      <c r="AZ69" s="9"/>
+      <c r="BA69" s="9"/>
+      <c r="BB69" s="9"/>
+      <c r="BC69" s="9"/>
+      <c r="BD69" s="9"/>
+    </row>
+    <row r="70" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="250"/>
+      <c r="B70" s="253" t="s">
+        <v>181</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G70" s="49"/>
+      <c r="H70" s="20"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
+      <c r="Z70" s="9"/>
+      <c r="AA70" s="9"/>
+      <c r="AB70" s="9"/>
+      <c r="AC70" s="9"/>
+      <c r="AD70" s="9"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="9"/>
+      <c r="AM70" s="9"/>
+      <c r="AN70" s="9"/>
+      <c r="AP70" s="9"/>
+      <c r="AQ70" s="9"/>
+      <c r="AR70" s="9"/>
+      <c r="AS70" s="9"/>
+      <c r="AT70" s="9"/>
+      <c r="AU70" s="9"/>
+      <c r="AV70" s="9"/>
+      <c r="AW70" s="9"/>
+      <c r="AX70" s="9"/>
+      <c r="AY70" s="9"/>
+      <c r="AZ70" s="9"/>
+      <c r="BA70" s="9"/>
+      <c r="BB70" s="9"/>
+      <c r="BC70" s="9"/>
+      <c r="BD70" s="9"/>
+    </row>
+    <row r="71" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="250"/>
+      <c r="B71" s="284"/>
+      <c r="C71" s="188" t="s">
+        <v>991</v>
+      </c>
+      <c r="D71" s="181">
+        <f>$L$2*D70</f>
+        <v>4718700</v>
+      </c>
+      <c r="E71" s="181">
+        <f>$L$2*E70</f>
+        <v>4983299.9999999991</v>
+      </c>
+      <c r="F71" s="184">
+        <f>$L$2*F70</f>
+        <v>5247900</v>
+      </c>
+      <c r="G71" s="49"/>
+      <c r="H71" s="20"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="9"/>
+      <c r="AB71" s="9"/>
+      <c r="AC71" s="9"/>
+      <c r="AD71" s="9"/>
+      <c r="AE71" s="9"/>
+      <c r="AF71" s="9"/>
+      <c r="AG71" s="9"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="9"/>
+      <c r="AJ71" s="9"/>
+      <c r="AK71" s="9"/>
+      <c r="AL71" s="9"/>
+      <c r="AM71" s="9"/>
+      <c r="AN71" s="9"/>
+      <c r="AP71" s="9"/>
+      <c r="AQ71" s="9"/>
+      <c r="AR71" s="9"/>
+      <c r="AS71" s="9"/>
+      <c r="AT71" s="9"/>
+      <c r="AU71" s="9"/>
+      <c r="AV71" s="9"/>
+      <c r="AW71" s="9"/>
+      <c r="AX71" s="9"/>
+      <c r="AY71" s="9"/>
+      <c r="AZ71" s="9"/>
+      <c r="BA71" s="9"/>
+      <c r="BB71" s="9"/>
+      <c r="BC71" s="9"/>
+      <c r="BD71" s="9"/>
+    </row>
+    <row r="72" spans="1:56" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="251"/>
+      <c r="B72" s="254"/>
+      <c r="C72" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="24">
+        <v>730</v>
+      </c>
+      <c r="E72" s="24">
+        <v>1095</v>
+      </c>
+      <c r="F72" s="51">
+        <v>1095</v>
+      </c>
+      <c r="G72" s="49"/>
+      <c r="H72" s="20"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
+      <c r="Z72" s="9"/>
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+      <c r="AD72" s="9"/>
+      <c r="AE72" s="9"/>
+      <c r="AF72" s="9"/>
+      <c r="AG72" s="9"/>
+      <c r="AH72" s="9"/>
+      <c r="AI72" s="9"/>
+      <c r="AJ72" s="9"/>
+      <c r="AK72" s="9"/>
+      <c r="AL72" s="9"/>
+      <c r="AM72" s="9"/>
+      <c r="AN72" s="9"/>
+      <c r="AP72" s="9"/>
+      <c r="AQ72" s="9"/>
+      <c r="AR72" s="9"/>
+      <c r="AS72" s="9"/>
+      <c r="AT72" s="9"/>
+      <c r="AU72" s="9"/>
+      <c r="AV72" s="9"/>
+      <c r="AW72" s="9"/>
+      <c r="AX72" s="9"/>
+      <c r="AY72" s="9"/>
+      <c r="AZ72" s="9"/>
+      <c r="BA72" s="9"/>
+      <c r="BB72" s="9"/>
+      <c r="BC72" s="9"/>
+      <c r="BD72" s="9"/>
+    </row>
+    <row r="73" spans="1:56" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="36"/>
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
+      <c r="AB73" s="9"/>
+      <c r="AC73" s="9"/>
+      <c r="AD73" s="9"/>
+      <c r="AE73" s="9"/>
+      <c r="AF73" s="9"/>
+      <c r="AG73" s="9"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="9"/>
+      <c r="AJ73" s="9"/>
+      <c r="AK73" s="9"/>
+      <c r="AL73" s="9"/>
+      <c r="AM73" s="9"/>
+      <c r="AN73" s="9"/>
+      <c r="AP73" s="9"/>
+      <c r="AQ73" s="9"/>
+      <c r="AR73" s="9"/>
+      <c r="AS73" s="9"/>
+      <c r="AT73" s="9"/>
+      <c r="AU73" s="9"/>
+      <c r="AV73" s="9"/>
+      <c r="AW73" s="9"/>
+      <c r="AX73" s="9"/>
+      <c r="AY73" s="9"/>
+      <c r="AZ73" s="9"/>
+      <c r="BA73" s="9"/>
+      <c r="BB73" s="9"/>
+      <c r="BC73" s="9"/>
+      <c r="BD73" s="9"/>
+    </row>
+    <row r="74" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="243" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="244"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
+      <c r="AB74" s="9"/>
+      <c r="AC74" s="9"/>
+      <c r="AD74" s="9"/>
+      <c r="AE74" s="9"/>
+      <c r="AF74" s="9"/>
+      <c r="AG74" s="9"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="9"/>
+      <c r="AJ74" s="9"/>
+      <c r="AK74" s="9"/>
+      <c r="AL74" s="9"/>
+      <c r="AM74" s="9"/>
+      <c r="AN74" s="9"/>
+      <c r="AP74" s="9"/>
+      <c r="AQ74" s="9"/>
+      <c r="AR74" s="9"/>
+      <c r="AS74" s="9"/>
+      <c r="AT74" s="9"/>
+      <c r="AU74" s="9"/>
+      <c r="AV74" s="9"/>
+      <c r="AW74" s="9"/>
+      <c r="AX74" s="9"/>
+      <c r="AY74" s="9"/>
+      <c r="AZ74" s="9"/>
+      <c r="BA74" s="9"/>
+      <c r="BB74" s="9"/>
+      <c r="BC74" s="9"/>
+      <c r="BD74" s="9"/>
+    </row>
+    <row r="75" spans="1:56" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="38"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
+      <c r="AB75" s="9"/>
+      <c r="AC75" s="9"/>
+      <c r="AD75" s="9"/>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="9"/>
+      <c r="AG75" s="9"/>
+      <c r="AH75" s="9"/>
+      <c r="AI75" s="9"/>
+      <c r="AJ75" s="9"/>
+      <c r="AK75" s="9"/>
+      <c r="AL75" s="9"/>
+      <c r="AM75" s="9"/>
+      <c r="AN75" s="9"/>
+      <c r="AP75" s="9"/>
+      <c r="AQ75" s="9"/>
+      <c r="AR75" s="9"/>
+      <c r="AS75" s="9"/>
+      <c r="AT75" s="9"/>
+      <c r="AU75" s="9"/>
+      <c r="AV75" s="9"/>
+      <c r="AW75" s="9"/>
+      <c r="AX75" s="9"/>
+      <c r="AY75" s="9"/>
+      <c r="AZ75" s="9"/>
+      <c r="BA75" s="9"/>
+      <c r="BB75" s="9"/>
+      <c r="BC75" s="9"/>
+      <c r="BD75" s="9"/>
+    </row>
+    <row r="76" spans="1:56" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="38"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
+      <c r="AB76" s="9"/>
+      <c r="AC76" s="9"/>
+      <c r="AD76" s="9"/>
+      <c r="AE76" s="9"/>
+      <c r="AF76" s="9"/>
+      <c r="AG76" s="9"/>
+      <c r="AH76" s="9"/>
+      <c r="AI76" s="9"/>
+      <c r="AJ76" s="9"/>
+      <c r="AK76" s="9"/>
+      <c r="AL76" s="9"/>
+      <c r="AM76" s="9"/>
+      <c r="AN76" s="9"/>
+      <c r="AP76" s="9"/>
+      <c r="AQ76" s="9"/>
+      <c r="AR76" s="9"/>
+      <c r="AS76" s="9"/>
+      <c r="AT76" s="9"/>
+      <c r="AU76" s="9"/>
+      <c r="AV76" s="9"/>
+      <c r="AW76" s="9"/>
+      <c r="AX76" s="9"/>
+      <c r="AY76" s="9"/>
+      <c r="AZ76" s="9"/>
+      <c r="BA76" s="9"/>
+      <c r="BB76" s="9"/>
+      <c r="BC76" s="9"/>
+      <c r="BD76" s="9"/>
+    </row>
+    <row r="77" spans="1:56" s="10" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
+      <c r="AB77" s="9"/>
+      <c r="AC77" s="9"/>
+      <c r="AD77" s="9"/>
+      <c r="AE77" s="9"/>
+      <c r="AF77" s="9"/>
+      <c r="AG77" s="9"/>
+      <c r="AH77" s="9"/>
+      <c r="AI77" s="9"/>
+      <c r="AJ77" s="9"/>
+      <c r="AK77" s="9"/>
+      <c r="AL77" s="9"/>
+      <c r="AM77" s="9"/>
+      <c r="AN77" s="9"/>
+      <c r="AP77" s="9"/>
+      <c r="AQ77" s="9"/>
+      <c r="AR77" s="9"/>
+      <c r="AS77" s="9"/>
+      <c r="AT77" s="9"/>
+      <c r="AU77" s="9"/>
+      <c r="AV77" s="9"/>
+      <c r="AW77" s="9"/>
+      <c r="AX77" s="9"/>
+      <c r="AY77" s="9"/>
+      <c r="AZ77" s="9"/>
+      <c r="BA77" s="9"/>
+      <c r="BB77" s="9"/>
+      <c r="BC77" s="9"/>
+      <c r="BD77" s="9"/>
+    </row>
+    <row r="78" spans="1:56" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="36"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
+      <c r="Z78" s="9"/>
+      <c r="AA78" s="9"/>
+      <c r="AB78" s="9"/>
+      <c r="AC78" s="9"/>
+      <c r="AD78" s="9"/>
+      <c r="AE78" s="9"/>
+      <c r="AF78" s="9"/>
+      <c r="AG78" s="9"/>
+      <c r="AH78" s="9"/>
+      <c r="AI78" s="9"/>
+      <c r="AJ78" s="9"/>
+      <c r="AK78" s="9"/>
+      <c r="AL78" s="9"/>
+      <c r="AM78" s="9"/>
+      <c r="AN78" s="9"/>
+      <c r="AP78" s="9"/>
+      <c r="AQ78" s="9"/>
+      <c r="AR78" s="9"/>
+      <c r="AS78" s="9"/>
+      <c r="AT78" s="9"/>
+      <c r="AU78" s="9"/>
+      <c r="AV78" s="9"/>
+      <c r="AW78" s="9"/>
+      <c r="AX78" s="9"/>
+      <c r="AY78" s="9"/>
+      <c r="AZ78" s="9"/>
+      <c r="BA78" s="9"/>
+      <c r="BB78" s="9"/>
+      <c r="BC78" s="9"/>
+      <c r="BD78" s="9"/>
+    </row>
+    <row r="79" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="245" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="246"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="9"/>
+      <c r="AA79" s="9"/>
+      <c r="AB79" s="9"/>
+      <c r="AC79" s="9"/>
+      <c r="AD79" s="9"/>
+      <c r="AE79" s="9"/>
+      <c r="AF79" s="9"/>
+      <c r="AG79" s="9"/>
+      <c r="AH79" s="9"/>
+      <c r="AI79" s="9"/>
+      <c r="AJ79" s="9"/>
+      <c r="AK79" s="9"/>
+      <c r="AL79" s="9"/>
+      <c r="AM79" s="9"/>
+      <c r="AN79" s="9"/>
+      <c r="AP79" s="9"/>
+      <c r="AQ79" s="9"/>
+      <c r="AR79" s="9"/>
+      <c r="AS79" s="9"/>
+      <c r="AT79" s="9"/>
+      <c r="AU79" s="9"/>
+      <c r="AV79" s="9"/>
+      <c r="AW79" s="9"/>
+      <c r="AX79" s="9"/>
+      <c r="AY79" s="9"/>
+      <c r="AZ79" s="9"/>
+      <c r="BA79" s="9"/>
+      <c r="BB79" s="9"/>
+      <c r="BC79" s="9"/>
+      <c r="BD79" s="9"/>
+    </row>
+    <row r="80" spans="1:56" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="49"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
+      <c r="Z80" s="9"/>
+      <c r="AA80" s="9"/>
+      <c r="AB80" s="9"/>
+      <c r="AC80" s="9"/>
+      <c r="AD80" s="9"/>
+      <c r="AE80" s="9"/>
+      <c r="AF80" s="9"/>
+      <c r="AG80" s="9"/>
+      <c r="AH80" s="9"/>
+      <c r="AI80" s="9"/>
+      <c r="AJ80" s="9"/>
+      <c r="AK80" s="9"/>
+      <c r="AL80" s="9"/>
+      <c r="AM80" s="9"/>
+      <c r="AN80" s="9"/>
+      <c r="AP80" s="9"/>
+      <c r="AQ80" s="9"/>
+      <c r="AR80" s="9"/>
+      <c r="AS80" s="9"/>
+      <c r="AT80" s="9"/>
+      <c r="AU80" s="9"/>
+      <c r="AV80" s="9"/>
+      <c r="AW80" s="9"/>
+      <c r="AX80" s="9"/>
+      <c r="AY80" s="9"/>
+      <c r="AZ80" s="9"/>
+      <c r="BA80" s="9"/>
+      <c r="BB80" s="9"/>
+      <c r="BC80" s="9"/>
+      <c r="BD80" s="9"/>
+    </row>
+    <row r="81" spans="1:56" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C81" s="49"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
+      <c r="Z81" s="9"/>
+      <c r="AA81" s="9"/>
+      <c r="AB81" s="9"/>
+      <c r="AC81" s="9"/>
+      <c r="AD81" s="9"/>
+      <c r="AE81" s="9"/>
+      <c r="AF81" s="9"/>
+      <c r="AG81" s="9"/>
+      <c r="AH81" s="9"/>
+      <c r="AI81" s="9"/>
+      <c r="AJ81" s="9"/>
+      <c r="AK81" s="9"/>
+      <c r="AL81" s="9"/>
+      <c r="AM81" s="9"/>
+      <c r="AN81" s="9"/>
+      <c r="AP81" s="9"/>
+      <c r="AQ81" s="9"/>
+      <c r="AR81" s="9"/>
+      <c r="AS81" s="9"/>
+      <c r="AT81" s="9"/>
+      <c r="AU81" s="9"/>
+      <c r="AV81" s="9"/>
+      <c r="AW81" s="9"/>
+      <c r="AX81" s="9"/>
+      <c r="AY81" s="9"/>
+      <c r="AZ81" s="9"/>
+      <c r="BA81" s="9"/>
+      <c r="BB81" s="9"/>
+      <c r="BC81" s="9"/>
+      <c r="BD81" s="9"/>
+    </row>
+    <row r="82" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="49"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
+      <c r="Z82" s="9"/>
+      <c r="AA82" s="9"/>
+      <c r="AB82" s="9"/>
+      <c r="AC82" s="9"/>
+      <c r="AD82" s="9"/>
+      <c r="AE82" s="9"/>
+      <c r="AF82" s="9"/>
+      <c r="AG82" s="9"/>
+      <c r="AH82" s="9"/>
+      <c r="AI82" s="9"/>
+      <c r="AJ82" s="9"/>
+      <c r="AK82" s="9"/>
+      <c r="AL82" s="9"/>
+      <c r="AM82" s="9"/>
+      <c r="AN82" s="9"/>
+      <c r="AP82" s="9"/>
+      <c r="AQ82" s="9"/>
+      <c r="AR82" s="9"/>
+      <c r="AS82" s="9"/>
+      <c r="AT82" s="9"/>
+      <c r="AU82" s="9"/>
+      <c r="AV82" s="9"/>
+      <c r="AW82" s="9"/>
+      <c r="AX82" s="9"/>
+      <c r="AY82" s="9"/>
+      <c r="AZ82" s="9"/>
+      <c r="BA82" s="9"/>
+      <c r="BB82" s="9"/>
+      <c r="BC82" s="9"/>
+      <c r="BD82" s="9"/>
+    </row>
+    <row r="83" spans="1:56" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="49"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
+      <c r="Z83" s="9"/>
+      <c r="AA83" s="9"/>
+      <c r="AB83" s="9"/>
+      <c r="AC83" s="9"/>
+      <c r="AD83" s="9"/>
+      <c r="AE83" s="9"/>
+      <c r="AF83" s="9"/>
+      <c r="AG83" s="9"/>
+      <c r="AH83" s="9"/>
+      <c r="AI83" s="9"/>
+      <c r="AJ83" s="9"/>
+      <c r="AK83" s="9"/>
+      <c r="AL83" s="9"/>
+      <c r="AM83" s="9"/>
+      <c r="AN83" s="9"/>
+      <c r="AP83" s="9"/>
+      <c r="AQ83" s="9"/>
+      <c r="AR83" s="9"/>
+      <c r="AS83" s="9"/>
+      <c r="AT83" s="9"/>
+      <c r="AU83" s="9"/>
+      <c r="AV83" s="9"/>
+      <c r="AW83" s="9"/>
+      <c r="AX83" s="9"/>
+      <c r="AY83" s="9"/>
+      <c r="AZ83" s="9"/>
+      <c r="BA83" s="9"/>
+      <c r="BB83" s="9"/>
+      <c r="BC83" s="9"/>
+      <c r="BD83" s="9"/>
+    </row>
+    <row r="84" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="42"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="9"/>
+      <c r="AH84" s="9"/>
+      <c r="AI84" s="9"/>
+      <c r="AJ84" s="9"/>
+      <c r="AK84" s="9"/>
+      <c r="AL84" s="9"/>
+      <c r="AM84" s="9"/>
+      <c r="AN84" s="9"/>
+      <c r="AP84" s="9"/>
+      <c r="AQ84" s="9"/>
+      <c r="AR84" s="9"/>
+      <c r="AS84" s="9"/>
+      <c r="AT84" s="9"/>
+      <c r="AU84" s="9"/>
+      <c r="AV84" s="9"/>
+      <c r="AW84" s="9"/>
+      <c r="AX84" s="9"/>
+      <c r="AY84" s="9"/>
+      <c r="AZ84" s="9"/>
+      <c r="BA84" s="9"/>
+      <c r="BB84" s="9"/>
+      <c r="BC84" s="9"/>
+      <c r="BD84" s="9"/>
+    </row>
+    <row r="120" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="42"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9" t="e">
+        <f>+INDEX('Bang do (2)'!$D$51:$J$51,MATCH(Bangtheodoi!$G101,'Bang do (2)'!$B$51,0),MATCH($E120,'Bang do (2)'!$D$46:$E$46,0))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J120" s="8"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="9"/>
+      <c r="Y120" s="9"/>
+      <c r="Z120" s="9"/>
+      <c r="AA120" s="9"/>
+      <c r="AB120" s="9"/>
+      <c r="AC120" s="9"/>
+      <c r="AD120" s="9"/>
+      <c r="AE120" s="9"/>
+      <c r="AF120" s="9"/>
+      <c r="AG120" s="9"/>
+      <c r="AH120" s="9"/>
+      <c r="AI120" s="9"/>
+      <c r="AJ120" s="9"/>
+      <c r="AK120" s="9"/>
+      <c r="AL120" s="9"/>
+      <c r="AM120" s="9"/>
+      <c r="AN120" s="9"/>
+      <c r="AP120" s="9"/>
+      <c r="AQ120" s="9"/>
+      <c r="AR120" s="9"/>
+      <c r="AS120" s="9"/>
+      <c r="AT120" s="9"/>
+      <c r="AU120" s="9"/>
+      <c r="AV120" s="9"/>
+      <c r="AW120" s="9"/>
+      <c r="AX120" s="9"/>
+      <c r="AY120" s="9"/>
+      <c r="AZ120" s="9"/>
+      <c r="BA120" s="9"/>
+      <c r="BB120" s="9"/>
+      <c r="BC120" s="9"/>
+      <c r="BD120" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:H57"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D17:K18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A16:K16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9956,7 +12656,7 @@
       </c>
       <c r="P5" s="70"/>
       <c r="Q5" s="70"/>
-      <c r="R5" s="194" t="s">
+      <c r="R5" s="217" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10008,7 +12708,7 @@
       <c r="O6" s="73"/>
       <c r="P6" s="73"/>
       <c r="Q6" s="73"/>
-      <c r="R6" s="194"/>
+      <c r="R6" s="217"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="73">
@@ -10055,7 +12755,7 @@
       <c r="O7" s="73"/>
       <c r="P7" s="73"/>
       <c r="Q7" s="73"/>
-      <c r="R7" s="194"/>
+      <c r="R7" s="217"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
@@ -10112,7 +12812,7 @@
       <c r="Q8" s="73">
         <v>36</v>
       </c>
-      <c r="R8" s="194"/>
+      <c r="R8" s="217"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
@@ -11111,12 +13811,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="218" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="135" t="s">
@@ -12180,259 +14880,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="219" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="219" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="219" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="204" t="s">
+      <c r="A5" s="221" t="s">
         <v>439</v>
       </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
+      <c r="B5" s="220"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
+      <c r="E5" s="220"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
+      <c r="K5" s="220"/>
+      <c r="L5" s="220"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="220"/>
+      <c r="P5" s="220"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="220"/>
+      <c r="S5" s="220"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="222" t="s">
         <v>440</v>
       </c>
-      <c r="B6" s="197"/>
-      <c r="C6" s="197"/>
-      <c r="D6" s="197"/>
-      <c r="E6" s="197"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="197"/>
-      <c r="H6" s="197"/>
-      <c r="I6" s="197"/>
-      <c r="J6" s="197"/>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
+      <c r="B6" s="220"/>
+      <c r="C6" s="220"/>
+      <c r="D6" s="220"/>
+      <c r="E6" s="220"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
+      <c r="K6" s="220"/>
+      <c r="L6" s="220"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="220"/>
+      <c r="P6" s="220"/>
+      <c r="Q6" s="220"/>
+      <c r="R6" s="220"/>
+      <c r="S6" s="220"/>
     </row>
     <row r="8" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="199" t="s">
+      <c r="A8" s="224" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="224" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="199" t="s">
+      <c r="D8" s="224" t="s">
         <v>441</v>
       </c>
-      <c r="E8" s="199" t="s">
+      <c r="E8" s="224" t="s">
         <v>442</v>
       </c>
-      <c r="F8" s="199" t="s">
+      <c r="F8" s="224" t="s">
         <v>443</v>
       </c>
-      <c r="G8" s="199" t="s">
+      <c r="G8" s="224" t="s">
         <v>257</v>
       </c>
-      <c r="H8" s="199" t="s">
+      <c r="H8" s="224" t="s">
         <v>444</v>
       </c>
       <c r="I8" s="146" t="s">
         <v>445</v>
       </c>
-      <c r="J8" s="199" t="s">
+      <c r="J8" s="224" t="s">
         <v>446</v>
       </c>
-      <c r="K8" s="199" t="s">
+      <c r="K8" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="L8" s="199" t="s">
+      <c r="L8" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="M8" s="199" t="s">
+      <c r="M8" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="N8" s="199" t="s">
+      <c r="N8" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="O8" s="199" t="s">
+      <c r="O8" s="224" t="s">
         <v>448</v>
       </c>
-      <c r="P8" s="199" t="s">
+      <c r="P8" s="224" t="s">
         <v>449</v>
       </c>
-      <c r="Q8" s="199" t="s">
+      <c r="Q8" s="224" t="s">
         <v>450</v>
       </c>
-      <c r="R8" s="199" t="s">
+      <c r="R8" s="224" t="s">
         <v>451</v>
       </c>
-      <c r="S8" s="199" t="s">
+      <c r="S8" s="224" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="B9" s="199" t="s">
+      <c r="B9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="C9" s="199" t="s">
+      <c r="C9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="D9" s="199" t="s">
+      <c r="D9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="E9" s="199" t="s">
+      <c r="E9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="F9" s="199" t="s">
+      <c r="F9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="G9" s="199" t="s">
+      <c r="G9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="H9" s="199" t="s">
+      <c r="H9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="I9" s="199" t="s">
+      <c r="I9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="J9" s="199" t="s">
+      <c r="J9" s="224" t="s">
         <v>453</v>
       </c>
-      <c r="K9" s="199" t="s">
+      <c r="K9" s="224" t="s">
         <v>454</v>
       </c>
-      <c r="L9" s="199" t="s">
+      <c r="L9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="M9" s="199" t="s">
+      <c r="M9" s="224" t="s">
         <v>447</v>
       </c>
       <c r="N9" s="146" t="s">
         <v>447</v>
       </c>
-      <c r="O9" s="199" t="s">
+      <c r="O9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="P9" s="199" t="s">
+      <c r="P9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="Q9" s="199" t="s">
+      <c r="Q9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="R9" s="199" t="s">
+      <c r="R9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="S9" s="199" t="s">
+      <c r="S9" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="T9" s="197"/>
+      <c r="T9" s="220"/>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="199" t="s">
+      <c r="A10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="B10" s="199" t="s">
+      <c r="B10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="199" t="s">
+      <c r="D10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="E10" s="199" t="s">
+      <c r="E10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="F10" s="199" t="s">
+      <c r="F10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="G10" s="199" t="s">
+      <c r="G10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="H10" s="199" t="s">
+      <c r="H10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="I10" s="199" t="s">
+      <c r="I10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="J10" s="199" t="s">
+      <c r="J10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="K10" s="199" t="s">
+      <c r="K10" s="224" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="199" t="s">
+      <c r="L10" s="224" t="s">
         <v>455</v>
       </c>
-      <c r="M10" s="199" t="s">
+      <c r="M10" s="224" t="s">
         <v>456</v>
       </c>
       <c r="N10" s="146" t="s">
         <v>457</v>
       </c>
-      <c r="O10" s="199" t="s">
+      <c r="O10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="P10" s="199" t="s">
+      <c r="P10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="Q10" s="199" t="s">
+      <c r="Q10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="R10" s="199" t="s">
+      <c r="R10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="S10" s="199" t="s">
+      <c r="S10" s="224" t="s">
         <v>447</v>
       </c>
-      <c r="T10" s="199" t="s">
+      <c r="T10" s="224" t="s">
         <v>447</v>
       </c>
     </row>
@@ -17639,31 +20339,31 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="200" t="s">
+      <c r="A113" s="225" t="s">
         <v>894</v>
       </c>
-      <c r="B113" s="200" t="s">
+      <c r="B113" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="C113" s="200" t="s">
+      <c r="C113" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="D113" s="200" t="s">
+      <c r="D113" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="E113" s="200" t="s">
+      <c r="E113" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="F113" s="200" t="s">
+      <c r="F113" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="G113" s="200" t="s">
+      <c r="G113" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="H113" s="200" t="s">
+      <c r="H113" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="I113" s="201" t="s">
+      <c r="I113" s="226" t="s">
         <v>447</v>
       </c>
       <c r="J113" s="152"/>
@@ -17680,31 +20380,31 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="200" t="s">
+      <c r="A114" s="225" t="s">
         <v>895</v>
       </c>
-      <c r="B114" s="200" t="s">
+      <c r="B114" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="C114" s="200" t="s">
+      <c r="C114" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="D114" s="200" t="s">
+      <c r="D114" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="E114" s="200" t="s">
+      <c r="E114" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="F114" s="200" t="s">
+      <c r="F114" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="G114" s="200" t="s">
+      <c r="G114" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="H114" s="200" t="s">
+      <c r="H114" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="I114" s="200" t="s">
+      <c r="I114" s="225" t="s">
         <v>447</v>
       </c>
       <c r="J114" s="151">
@@ -17731,46 +20431,46 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A115" s="200" t="s">
+      <c r="A115" s="225" t="s">
         <v>896</v>
       </c>
-      <c r="B115" s="200" t="s">
+      <c r="B115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="C115" s="200" t="s">
+      <c r="C115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="D115" s="200" t="s">
+      <c r="D115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="E115" s="200" t="s">
+      <c r="E115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="F115" s="200" t="s">
+      <c r="F115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="G115" s="200" t="s">
+      <c r="G115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="H115" s="200" t="s">
+      <c r="H115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="I115" s="200" t="s">
+      <c r="I115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="J115" s="200" t="s">
+      <c r="J115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="K115" s="200" t="s">
+      <c r="K115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="L115" s="200" t="s">
+      <c r="L115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="M115" s="200" t="s">
+      <c r="M115" s="225" t="s">
         <v>447</v>
       </c>
-      <c r="N115" s="200" t="s">
+      <c r="N115" s="225" t="s">
         <v>447</v>
       </c>
       <c r="O115" s="151">
@@ -17790,11 +20490,11 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A116" s="202" t="s">
+      <c r="A116" s="223" t="s">
         <v>897</v>
       </c>
-      <c r="B116" s="197"/>
-      <c r="C116" s="197"/>
+      <c r="B116" s="220"/>
+      <c r="C116" s="220"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B117" s="144" t="s">
@@ -17803,11 +20503,11 @@
       <c r="C117" s="154">
         <v>102</v>
       </c>
-      <c r="N117" s="198" t="s">
+      <c r="N117" s="228" t="s">
         <v>899</v>
       </c>
-      <c r="O117" s="197"/>
-      <c r="P117" s="197"/>
+      <c r="O117" s="220"/>
+      <c r="P117" s="220"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B118" s="144" t="s">
@@ -17816,25 +20516,25 @@
       <c r="C118" s="154">
         <v>102</v>
       </c>
-      <c r="F118" s="196" t="s">
+      <c r="F118" s="227" t="s">
         <v>901</v>
       </c>
-      <c r="G118" s="197"/>
-      <c r="H118" s="196" t="s">
+      <c r="G118" s="220"/>
+      <c r="H118" s="227" t="s">
         <v>902</v>
       </c>
-      <c r="I118" s="197"/>
-      <c r="J118" s="197"/>
-      <c r="K118" s="196" t="s">
+      <c r="I118" s="220"/>
+      <c r="J118" s="220"/>
+      <c r="K118" s="227" t="s">
         <v>903</v>
       </c>
-      <c r="L118" s="197"/>
-      <c r="M118" s="197"/>
-      <c r="N118" s="196" t="s">
+      <c r="L118" s="220"/>
+      <c r="M118" s="220"/>
+      <c r="N118" s="227" t="s">
         <v>904</v>
       </c>
-      <c r="O118" s="197"/>
-      <c r="P118" s="197"/>
+      <c r="O118" s="220"/>
+      <c r="P118" s="220"/>
     </row>
     <row r="119" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B119" s="144" t="s">
@@ -17843,25 +20543,25 @@
       <c r="C119" s="154">
         <v>654355800</v>
       </c>
-      <c r="F119" s="198" t="s">
+      <c r="F119" s="228" t="s">
         <v>906</v>
       </c>
-      <c r="G119" s="197"/>
-      <c r="H119" s="198" t="s">
+      <c r="G119" s="220"/>
+      <c r="H119" s="228" t="s">
         <v>906</v>
       </c>
-      <c r="I119" s="197"/>
-      <c r="J119" s="197"/>
-      <c r="K119" s="198" t="s">
+      <c r="I119" s="220"/>
+      <c r="J119" s="220"/>
+      <c r="K119" s="228" t="s">
         <v>906</v>
       </c>
-      <c r="L119" s="197"/>
-      <c r="M119" s="197"/>
-      <c r="N119" s="198" t="s">
+      <c r="L119" s="220"/>
+      <c r="M119" s="220"/>
+      <c r="N119" s="228" t="s">
         <v>906</v>
       </c>
-      <c r="O119" s="197"/>
-      <c r="P119" s="197"/>
+      <c r="O119" s="220"/>
+      <c r="P119" s="220"/>
     </row>
     <row r="120" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B120" s="144" t="s">
@@ -17891,10 +20591,10 @@
       <c r="C123" s="154">
         <v>29446030</v>
       </c>
-      <c r="F123" s="196" t="s">
+      <c r="F123" s="227" t="s">
         <v>911</v>
       </c>
-      <c r="G123" s="197"/>
+      <c r="G123" s="220"/>
     </row>
     <row r="124" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B124" s="144" t="s">
@@ -17930,11 +20630,23 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="N117:P117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="N118:P118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="N119:P119"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A114:I114"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="J115:N115"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
     <mergeCell ref="A116:C116"/>
     <mergeCell ref="Q8:Q10"/>
     <mergeCell ref="R8:R10"/>
@@ -17951,23 +20663,11 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="A114:I114"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="J115:N115"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="N117:P117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="N118:P118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="N119:P119"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:S6"/>
   </mergeCells>
   <pageMargins left="6.25E-2" right="5.2083333333333336E-2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -17980,9 +20680,9 @@
   <dimension ref="A1:O126"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="O70" sqref="O70"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -18005,42 +20705,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="210" t="s">
+      <c r="I1" s="238" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="209"/>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="211" t="s">
+      <c r="I2" s="239" t="s">
         <v>246</v>
       </c>
-      <c r="J2" s="210"/>
-      <c r="K2" s="210"/>
-      <c r="L2" s="210"/>
-      <c r="M2" s="210"/>
+      <c r="J2" s="238"/>
+      <c r="K2" s="238"/>
+      <c r="L2" s="238"/>
+      <c r="M2" s="238"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="67"/>
@@ -18051,40 +20751,40 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="242" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="214"/>
-      <c r="C4" s="214"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="214"/>
-      <c r="G4" s="214"/>
-      <c r="H4" s="214"/>
-      <c r="I4" s="214"/>
-      <c r="J4" s="214"/>
-      <c r="K4" s="214"/>
-      <c r="L4" s="214"/>
-      <c r="M4" s="214"/>
-      <c r="N4" s="214"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="242"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="214" t="s">
+      <c r="A5" s="242" t="s">
         <v>985</v>
       </c>
-      <c r="B5" s="214"/>
-      <c r="C5" s="214"/>
-      <c r="D5" s="214"/>
-      <c r="E5" s="214"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="214"/>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="214"/>
-      <c r="L5" s="214"/>
-      <c r="M5" s="214"/>
-      <c r="N5" s="214"/>
+      <c r="B5" s="242"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="242"/>
     </row>
     <row r="6" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -18113,66 +20813,66 @@
       <c r="N7" s="105"/>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="217" t="s">
+      <c r="A8" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="217" t="s">
+      <c r="B8" s="231" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="206" t="s">
+      <c r="C8" s="232" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="234" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="219"/>
-      <c r="F8" s="217" t="s">
+      <c r="E8" s="235"/>
+      <c r="F8" s="231" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="206" t="s">
+      <c r="G8" s="232" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="206" t="s">
+      <c r="H8" s="232" t="s">
         <v>199</v>
       </c>
-      <c r="I8" s="212" t="s">
+      <c r="I8" s="240" t="s">
         <v>200</v>
       </c>
-      <c r="J8" s="206" t="s">
+      <c r="J8" s="232" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="206" t="s">
+      <c r="K8" s="232" t="s">
         <v>201</v>
       </c>
-      <c r="L8" s="212" t="s">
+      <c r="L8" s="240" t="s">
         <v>202</v>
       </c>
-      <c r="M8" s="206" t="s">
+      <c r="M8" s="232" t="s">
         <v>206</v>
       </c>
-      <c r="N8" s="206" t="s">
+      <c r="N8" s="232" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="217"/>
-      <c r="B9" s="217"/>
-      <c r="C9" s="207"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="233"/>
       <c r="D9" s="112" t="s">
         <v>348</v>
       </c>
       <c r="E9" s="112" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="217"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="213"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="213"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="207"/>
+      <c r="F9" s="231"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="233"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="241"/>
+      <c r="M9" s="233"/>
+      <c r="N9" s="233"/>
     </row>
     <row r="10" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
@@ -23207,10 +25907,10 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="215" t="s">
+      <c r="A125" s="229" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="215"/>
+      <c r="B125" s="229"/>
       <c r="C125" s="111"/>
       <c r="D125" s="111"/>
       <c r="E125" s="111"/>
@@ -23225,12 +25925,12 @@
       <c r="N125" s="106"/>
     </row>
     <row r="126" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="216"/>
-      <c r="B126" s="216"/>
-      <c r="C126" s="216"/>
-      <c r="D126" s="216"/>
-      <c r="E126" s="216"/>
-      <c r="F126" s="216"/>
+      <c r="A126" s="230"/>
+      <c r="B126" s="230"/>
+      <c r="C126" s="230"/>
+      <c r="D126" s="230"/>
+      <c r="E126" s="230"/>
+      <c r="F126" s="230"/>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -23243,13 +25943,6 @@
     <protectedRange sqref="A126 F126 A1:F125" name="Range1"/>
   </protectedRanges>
   <mergeCells count="21">
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -23264,6 +25957,13 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="L11 L13:L17 L37:L41 L43:L50 L52:L61 L63:L85 L26:L35">
@@ -23401,12 +26101,267 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D79E4C4-5854-4DBA-83EE-8D5F4AB4900A}">
+  <dimension ref="B7:O29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="199"/>
+      <c r="F7" s="199"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="199"/>
+      <c r="F8" s="199"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="194" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="73" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E10" s="199"/>
+      <c r="F10" s="195"/>
+      <c r="H10" s="196" t="s">
+        <v>1003</v>
+      </c>
+      <c r="K10" s="197" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="73" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E11" s="199"/>
+      <c r="F11" s="199"/>
+      <c r="H11" s="200" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="73" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="H12" s="201" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K12" s="73" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="200" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="H13" s="202" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M13" s="203" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H14" s="79" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M14" s="73" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N14" s="204" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D15" s="205" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K15" s="206" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M15" s="73" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="207" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K16" s="73" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M16" s="73" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="73" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D17" s="208" t="s">
+        <v>1030</v>
+      </c>
+      <c r="K17" s="73" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M17" s="209" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="73" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D18" s="210" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H18" s="211" t="s">
+        <v>1034</v>
+      </c>
+      <c r="K18" s="201" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M18" s="199"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="200" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D19" s="212" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H19" s="198" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H20" s="213" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K20" s="70" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="214" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K21" s="73" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="215"/>
+      <c r="C22" s="216"/>
+      <c r="F22" s="213" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="F23" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="216"/>
+      <c r="C24" s="216"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="216"/>
+      <c r="C25" s="216"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="216"/>
+      <c r="C26" s="216"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="216"/>
+      <c r="C27" s="216"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -23442,26 +26397,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="270" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="226" t="s">
+      <c r="B1" s="271" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="230" t="s">
+      <c r="C1" s="273" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="225" t="s">
+      <c r="D1" s="252" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="225"/>
-      <c r="F1" s="232"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="258"/>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="228"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="231"/>
+      <c r="A2" s="270"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="274"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -23648,56 +26603,56 @@
       <c r="A11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="233" t="s">
+      <c r="A12" s="243" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="234"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="234"/>
-      <c r="F12" s="234"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="234"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="234"/>
-      <c r="K12" s="235"/>
+      <c r="B12" s="275"/>
+      <c r="C12" s="275"/>
+      <c r="D12" s="275"/>
+      <c r="E12" s="275"/>
+      <c r="F12" s="275"/>
+      <c r="G12" s="275"/>
+      <c r="H12" s="275"/>
+      <c r="I12" s="275"/>
+      <c r="J12" s="275"/>
+      <c r="K12" s="244"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="228" t="s">
+      <c r="A13" s="270" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="225" t="s">
+      <c r="B13" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="236" t="s">
+      <c r="C13" s="257" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="237" t="s">
+      <c r="D13" s="259" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="238"/>
-      <c r="F13" s="238"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="238"/>
-      <c r="K13" s="239"/>
+      <c r="E13" s="260"/>
+      <c r="F13" s="260"/>
+      <c r="G13" s="260"/>
+      <c r="H13" s="260"/>
+      <c r="I13" s="260"/>
+      <c r="J13" s="260"/>
+      <c r="K13" s="261"/>
     </row>
     <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="228"/>
-      <c r="B14" s="225"/>
-      <c r="C14" s="236"/>
-      <c r="D14" s="240"/>
-      <c r="E14" s="241"/>
-      <c r="F14" s="241"/>
-      <c r="G14" s="241"/>
-      <c r="H14" s="241"/>
-      <c r="I14" s="241"/>
-      <c r="J14" s="241"/>
-      <c r="K14" s="242"/>
+      <c r="A14" s="270"/>
+      <c r="B14" s="252"/>
+      <c r="C14" s="257"/>
+      <c r="D14" s="276"/>
+      <c r="E14" s="277"/>
+      <c r="F14" s="277"/>
+      <c r="G14" s="277"/>
+      <c r="H14" s="277"/>
+      <c r="I14" s="277"/>
+      <c r="J14" s="277"/>
+      <c r="K14" s="278"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="265" t="s">
         <v>147</v>
       </c>
       <c r="B15" s="37"/>
@@ -23720,7 +26675,7 @@
       <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="220"/>
+      <c r="A16" s="265"/>
       <c r="B16" s="23" t="s">
         <v>146</v>
       </c>
@@ -23745,7 +26700,7 @@
       <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="220"/>
+      <c r="A17" s="265"/>
       <c r="B17" s="23" t="s">
         <v>146</v>
       </c>
@@ -23774,7 +26729,7 @@
       <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:24" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="220" t="s">
+      <c r="A18" s="265" t="s">
         <v>152</v>
       </c>
       <c r="B18" s="37"/>
@@ -23816,7 +26771,7 @@
       <c r="X18" s="142"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="220"/>
+      <c r="A19" s="265"/>
       <c r="B19" s="23" t="s">
         <v>151</v>
       </c>
@@ -23860,7 +26815,7 @@
       <c r="X19" s="142"/>
     </row>
     <row r="20" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="220"/>
+      <c r="A20" s="265"/>
       <c r="B20" s="23" t="s">
         <v>151</v>
       </c>
@@ -23901,7 +26856,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="220" t="s">
+      <c r="A21" s="265" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="37"/>
@@ -23926,7 +26881,7 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="220"/>
+      <c r="A22" s="265"/>
       <c r="B22" s="23" t="s">
         <v>161</v>
       </c>
@@ -23953,7 +26908,7 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="220"/>
+      <c r="A23" s="265"/>
       <c r="B23" s="23" t="s">
         <v>161</v>
       </c>
@@ -23985,7 +26940,7 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="243" t="s">
+      <c r="A24" s="256" t="s">
         <v>163</v>
       </c>
       <c r="B24" s="37"/>
@@ -24010,7 +26965,7 @@
       <c r="K24" s="44"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="243"/>
+      <c r="A25" s="256"/>
       <c r="B25" s="23" t="s">
         <v>203</v>
       </c>
@@ -24037,7 +26992,7 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="244"/>
+      <c r="A26" s="279"/>
       <c r="B26" s="24" t="s">
         <v>203</v>
       </c>
@@ -24070,43 +27025,43 @@
     </row>
     <row r="27" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="222" t="s">
+      <c r="A28" s="267" t="s">
         <v>192</v>
       </c>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="224"/>
+      <c r="B28" s="268"/>
+      <c r="C28" s="268"/>
+      <c r="D28" s="268"/>
+      <c r="E28" s="268"/>
+      <c r="F28" s="268"/>
+      <c r="G28" s="268"/>
+      <c r="H28" s="268"/>
+      <c r="I28" s="268"/>
+      <c r="J28" s="269"/>
     </row>
     <row r="29" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="221" t="s">
+      <c r="A29" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="225" t="s">
+      <c r="B29" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="225" t="s">
+      <c r="C29" s="252" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="225" t="s">
+      <c r="D29" s="252" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="226"/>
-      <c r="J29" s="227"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="252"/>
+      <c r="H29" s="252"/>
+      <c r="I29" s="271"/>
+      <c r="J29" s="281"/>
     </row>
     <row r="30" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="221"/>
-      <c r="B30" s="225"/>
-      <c r="C30" s="225"/>
+      <c r="A30" s="280"/>
+      <c r="B30" s="252"/>
+      <c r="C30" s="252"/>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
@@ -24126,7 +27081,7 @@
       <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="220" t="s">
+      <c r="A31" s="265" t="s">
         <v>168</v>
       </c>
       <c r="B31" s="23" t="s">
@@ -24154,7 +27109,7 @@
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="220"/>
+      <c r="A32" s="265"/>
       <c r="B32" s="23" t="s">
         <v>167</v>
       </c>
@@ -24180,7 +27135,7 @@
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="220" t="s">
+      <c r="A33" s="265" t="s">
         <v>171</v>
       </c>
       <c r="B33" s="37"/>
@@ -24202,7 +27157,7 @@
       <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="220"/>
+      <c r="A34" s="265"/>
       <c r="B34" s="23" t="s">
         <v>170</v>
       </c>
@@ -24226,7 +27181,7 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="220"/>
+      <c r="A35" s="265"/>
       <c r="B35" s="23" t="s">
         <v>170</v>
       </c>
@@ -24250,7 +27205,7 @@
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="220" t="s">
+      <c r="A36" s="265" t="s">
         <v>173</v>
       </c>
       <c r="B36" s="37"/>
@@ -24268,7 +27223,7 @@
       <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="220"/>
+      <c r="A37" s="265"/>
       <c r="B37" s="23" t="s">
         <v>172</v>
       </c>
@@ -24288,7 +27243,7 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="220"/>
+      <c r="A38" s="265"/>
       <c r="B38" s="23" t="s">
         <v>172</v>
       </c>
@@ -24308,7 +27263,7 @@
       <c r="J38" s="58"/>
     </row>
     <row r="39" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="220" t="s">
+      <c r="A39" s="265" t="s">
         <v>174</v>
       </c>
       <c r="B39" s="37"/>
@@ -24337,7 +27292,7 @@
       <c r="K39" s="44"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="220"/>
+      <c r="A40" s="265"/>
       <c r="B40" s="23" t="s">
         <v>204</v>
       </c>
@@ -24367,7 +27322,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="258"/>
+      <c r="A41" s="266"/>
       <c r="B41" s="24" t="s">
         <v>204</v>
       </c>
@@ -24398,44 +27353,44 @@
     </row>
     <row r="42" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="222" t="s">
+      <c r="A43" s="267" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="223"/>
-      <c r="C43" s="223"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="223"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="224"/>
+      <c r="B43" s="268"/>
+      <c r="C43" s="268"/>
+      <c r="D43" s="268"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="268"/>
+      <c r="G43" s="268"/>
+      <c r="H43" s="269"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="228" t="s">
+      <c r="A44" s="270" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="225" t="s">
+      <c r="B44" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="225" t="s">
+      <c r="C44" s="252" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="237" t="s">
+      <c r="D44" s="259" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="238"/>
-      <c r="F44" s="238"/>
-      <c r="G44" s="238"/>
-      <c r="H44" s="239"/>
+      <c r="E44" s="260"/>
+      <c r="F44" s="260"/>
+      <c r="G44" s="260"/>
+      <c r="H44" s="261"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="228"/>
-      <c r="B45" s="225"/>
-      <c r="C45" s="225"/>
-      <c r="D45" s="255"/>
-      <c r="E45" s="256"/>
-      <c r="F45" s="256"/>
-      <c r="G45" s="256"/>
-      <c r="H45" s="257"/>
+      <c r="A45" s="270"/>
+      <c r="B45" s="252"/>
+      <c r="C45" s="252"/>
+      <c r="D45" s="262"/>
+      <c r="E45" s="263"/>
+      <c r="F45" s="263"/>
+      <c r="G45" s="263"/>
+      <c r="H45" s="264"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="249" t="s">
@@ -24521,30 +27476,30 @@
       <c r="E50" s="246"/>
       <c r="F50" s="246"/>
       <c r="G50" s="246"/>
-      <c r="H50" s="254"/>
+      <c r="H50" s="255"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="243" t="s">
+      <c r="A51" s="256" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="225" t="s">
+      <c r="B51" s="252" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="236" t="s">
+      <c r="C51" s="257" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="225" t="s">
+      <c r="D51" s="252" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="225"/>
-      <c r="F51" s="225"/>
-      <c r="G51" s="225"/>
-      <c r="H51" s="232"/>
+      <c r="E51" s="252"/>
+      <c r="F51" s="252"/>
+      <c r="G51" s="252"/>
+      <c r="H51" s="258"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="243"/>
-      <c r="B52" s="225"/>
-      <c r="C52" s="236"/>
+      <c r="A52" s="256"/>
+      <c r="B52" s="252"/>
+      <c r="C52" s="257"/>
       <c r="D52" s="6" t="s">
         <v>6</v>
       </c>
@@ -24631,7 +27586,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="250"/>
-      <c r="B56" s="252" t="s">
+      <c r="B56" s="253" t="s">
         <v>181</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -24651,7 +27606,7 @@
     </row>
     <row r="57" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="251"/>
-      <c r="B57" s="253"/>
+      <c r="B57" s="254"/>
       <c r="C57" s="17" t="s">
         <v>135</v>
       </c>
@@ -24673,10 +27628,10 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="233" t="s">
+      <c r="A59" s="243" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="235"/>
+      <c r="B59" s="244"/>
       <c r="C59" s="46"/>
       <c r="D59" s="47"/>
       <c r="H59" s="9"/>
@@ -24773,6 +27728,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:K14"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A53:A54"/>
@@ -24789,41 +27766,19 @@
     <mergeCell ref="D44:H45"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A43:H43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:K14"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="D29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -24931,7 +27886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB6823C-5B79-4009-9F69-3A29C21755C4}">
   <dimension ref="A2:H41"/>
   <sheetViews>
@@ -24951,16 +27906,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="282" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="259"/>
-      <c r="C2" s="259"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
+      <c r="B2" s="282"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
+      <c r="H2" s="282"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="130" t="s">
@@ -25782,2985 +28737,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562E2497-F303-4ABF-AD8A-9677A046769D}">
-  <dimension ref="A1:BD120"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40" style="42" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="9"/>
-    <col min="14" max="19" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="9" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" style="9" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" style="9" customWidth="1"/>
-    <col min="25" max="32" width="9.140625" style="9"/>
-    <col min="33" max="33" width="27.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="39" width="9.140625" style="9"/>
-    <col min="40" max="40" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="34.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="49" width="9.140625" style="9"/>
-    <col min="50" max="50" width="86.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="11.42578125" style="9" customWidth="1"/>
-    <col min="52" max="53" width="9.140625" style="9"/>
-    <col min="54" max="54" width="45.28515625" style="9" customWidth="1"/>
-    <col min="55" max="55" width="11" style="9" customWidth="1"/>
-    <col min="56" max="56" width="8.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="228" t="s">
-        <v>125</v>
-      </c>
-      <c r="B1" s="226" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="230" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="225" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="225"/>
-      <c r="F1" s="232"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="228"/>
-      <c r="B2" s="229"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>990</v>
-      </c>
-      <c r="L2" s="9">
-        <v>4410000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>556</v>
-      </c>
-      <c r="B3" s="161" t="s">
-        <v>944</v>
-      </c>
-      <c r="C3" s="162" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="163">
-        <v>3.6</v>
-      </c>
-      <c r="E3" s="163">
-        <v>3.8</v>
-      </c>
-      <c r="F3" s="164">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="177">
-        <f>$L$2*D3</f>
-        <v>15876000</v>
-      </c>
-      <c r="E4" s="177">
-        <f>$L$2*E3</f>
-        <v>16758000</v>
-      </c>
-      <c r="F4" s="178">
-        <f>$L$2*F3</f>
-        <v>17640000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="179">
-        <f>$L$2*D5</f>
-        <v>11025000</v>
-      </c>
-      <c r="E6" s="179">
-        <f>$L$2*E5</f>
-        <v>11598300</v>
-      </c>
-      <c r="F6" s="180">
-        <f>$L$2*F5</f>
-        <v>12215700</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="171"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="181">
-        <f>$L$2*D7</f>
-        <v>9834300</v>
-      </c>
-      <c r="E8" s="181">
-        <f>$L$2*E7</f>
-        <v>10363500</v>
-      </c>
-      <c r="F8" s="182">
-        <f>$L$2*F7</f>
-        <v>10892700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="179">
-        <f>$L$2*D9</f>
-        <v>9216900</v>
-      </c>
-      <c r="E10" s="179">
-        <f>$L$2*E9</f>
-        <v>9702000</v>
-      </c>
-      <c r="F10" s="180">
-        <f>$L$2*F9</f>
-        <v>10187100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="173" t="s">
-        <v>556</v>
-      </c>
-      <c r="B11" s="174" t="s">
-        <v>944</v>
-      </c>
-      <c r="C11" s="175" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="175">
-        <f>365*3</f>
-        <v>1095</v>
-      </c>
-      <c r="E11" s="175">
-        <f t="shared" ref="E11:F14" si="0">365*3</f>
-        <v>1095</v>
-      </c>
-      <c r="F11" s="176">
-        <f t="shared" si="0"/>
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="167" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="168" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="168" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="168">
-        <f>365*3</f>
-        <v>1095</v>
-      </c>
-      <c r="E12" s="168">
-        <f t="shared" si="0"/>
-        <v>1095</v>
-      </c>
-      <c r="F12" s="169">
-        <f t="shared" si="0"/>
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="23">
-        <f t="shared" ref="D13:D14" si="1">365*3</f>
-        <v>1095</v>
-      </c>
-      <c r="E13" s="23">
-        <f t="shared" si="0"/>
-        <v>1095</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="24">
-        <f t="shared" si="1"/>
-        <v>1095</v>
-      </c>
-      <c r="E14" s="24">
-        <f t="shared" si="0"/>
-        <v>1095</v>
-      </c>
-      <c r="F14" s="13">
-        <f t="shared" si="0"/>
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="233" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" s="234"/>
-      <c r="C16" s="234"/>
-      <c r="D16" s="234"/>
-      <c r="E16" s="234"/>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="234"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="235"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="228" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="225" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="236" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="237" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="238"/>
-      <c r="F17" s="238"/>
-      <c r="G17" s="238"/>
-      <c r="H17" s="238"/>
-      <c r="I17" s="238"/>
-      <c r="J17" s="238"/>
-      <c r="K17" s="239"/>
-    </row>
-    <row r="18" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="228"/>
-      <c r="B18" s="225"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="240"/>
-      <c r="E18" s="241"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="241"/>
-      <c r="H18" s="241"/>
-      <c r="I18" s="241"/>
-      <c r="J18" s="241"/>
-      <c r="K18" s="242"/>
-    </row>
-    <row r="19" spans="1:24" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="220" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="220"/>
-      <c r="B20" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="49"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="220"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23" t="s">
-        <v>991</v>
-      </c>
-      <c r="D21" s="179">
-        <f>$L$2*D20</f>
-        <v>7938000</v>
-      </c>
-      <c r="E21" s="179">
-        <f t="shared" ref="E21:F21" si="2">$L$2*E20</f>
-        <v>8334900</v>
-      </c>
-      <c r="F21" s="179">
-        <f t="shared" si="2"/>
-        <v>8775900</v>
-      </c>
-      <c r="G21" s="183">
-        <f>$L$2*G20</f>
-        <v>9216900</v>
-      </c>
-      <c r="H21" s="49"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="220"/>
-      <c r="B22" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="23">
-        <f t="shared" ref="D22:G22" si="3">365*3</f>
-        <v>1095</v>
-      </c>
-      <c r="E22" s="23">
-        <f t="shared" si="3"/>
-        <v>1095</v>
-      </c>
-      <c r="F22" s="23">
-        <f t="shared" si="3"/>
-        <v>1095</v>
-      </c>
-      <c r="G22" s="28">
-        <f t="shared" si="3"/>
-        <v>1095</v>
-      </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-    </row>
-    <row r="23" spans="1:24" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="220" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="142"/>
-      <c r="O23" s="142"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="142"/>
-      <c r="S23" s="142"/>
-      <c r="T23" s="142"/>
-      <c r="U23" s="142"/>
-      <c r="V23" s="142"/>
-      <c r="W23" s="142"/>
-      <c r="X23" s="142"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="220"/>
-      <c r="B24" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="N24" s="142"/>
-      <c r="O24" s="142"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="142"/>
-      <c r="R24" s="142"/>
-      <c r="S24" s="142"/>
-      <c r="T24" s="142"/>
-      <c r="U24" s="142"/>
-      <c r="V24" s="142"/>
-      <c r="W24" s="142"/>
-      <c r="X24" s="142"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="220"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23" t="s">
-        <v>991</v>
-      </c>
-      <c r="D25" s="179">
-        <f>$L$2*D24</f>
-        <v>5247900</v>
-      </c>
-      <c r="E25" s="179">
-        <f t="shared" ref="E25:J25" si="4">$L$2*E24</f>
-        <v>5512500</v>
-      </c>
-      <c r="F25" s="179">
-        <f t="shared" si="4"/>
-        <v>5821200</v>
-      </c>
-      <c r="G25" s="179">
-        <f t="shared" si="4"/>
-        <v>6129900</v>
-      </c>
-      <c r="H25" s="179">
-        <f t="shared" si="4"/>
-        <v>6438600</v>
-      </c>
-      <c r="I25" s="179">
-        <f t="shared" si="4"/>
-        <v>6791400</v>
-      </c>
-      <c r="J25" s="179">
-        <f t="shared" si="4"/>
-        <v>7144200.0000000009</v>
-      </c>
-      <c r="K25" s="182">
-        <f>$L$2*K24</f>
-        <v>7541100</v>
-      </c>
-      <c r="N25" s="142"/>
-      <c r="O25" s="142"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="142"/>
-      <c r="R25" s="142"/>
-      <c r="S25" s="142"/>
-      <c r="T25" s="142"/>
-      <c r="U25" s="142"/>
-      <c r="V25" s="142"/>
-      <c r="W25" s="142"/>
-      <c r="X25" s="142"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="220"/>
-      <c r="B26" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="23">
-        <f>365*3</f>
-        <v>1095</v>
-      </c>
-      <c r="E26" s="23">
-        <f t="shared" ref="E26:K26" si="5">365*3</f>
-        <v>1095</v>
-      </c>
-      <c r="F26" s="23">
-        <f t="shared" si="5"/>
-        <v>1095</v>
-      </c>
-      <c r="G26" s="23">
-        <f t="shared" si="5"/>
-        <v>1095</v>
-      </c>
-      <c r="H26" s="23">
-        <f t="shared" si="5"/>
-        <v>1095</v>
-      </c>
-      <c r="I26" s="29">
-        <f t="shared" si="5"/>
-        <v>1095</v>
-      </c>
-      <c r="J26" s="29">
-        <f t="shared" si="5"/>
-        <v>1095</v>
-      </c>
-      <c r="K26" s="33">
-        <f t="shared" si="5"/>
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="220" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="220"/>
-      <c r="B28" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="220"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23" t="s">
-        <v>991</v>
-      </c>
-      <c r="D29" s="179">
-        <f>$L$2*D28</f>
-        <v>4983299.9999999991</v>
-      </c>
-      <c r="E29" s="179">
-        <f t="shared" ref="E29:G29" si="6">$L$2*E28</f>
-        <v>5247900</v>
-      </c>
-      <c r="F29" s="179">
-        <f t="shared" si="6"/>
-        <v>5512500</v>
-      </c>
-      <c r="G29" s="179">
-        <f t="shared" si="6"/>
-        <v>5821200</v>
-      </c>
-      <c r="H29" s="183">
-        <f>$L$2*H28</f>
-        <v>6129900</v>
-      </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="220"/>
-      <c r="B30" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" s="30">
-        <f>365*2</f>
-        <v>730</v>
-      </c>
-      <c r="E30" s="30">
-        <f>365*2</f>
-        <v>730</v>
-      </c>
-      <c r="F30" s="23">
-        <f t="shared" ref="F30:H30" si="7">365*3</f>
-        <v>1095</v>
-      </c>
-      <c r="G30" s="23">
-        <f t="shared" si="7"/>
-        <v>1095</v>
-      </c>
-      <c r="H30" s="28">
-        <f t="shared" si="7"/>
-        <v>1095</v>
-      </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="243" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="243"/>
-      <c r="B32" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="249"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29" t="s">
-        <v>991</v>
-      </c>
-      <c r="D33" s="181">
-        <f>$L$2*D32</f>
-        <v>4718700</v>
-      </c>
-      <c r="E33" s="181">
-        <f t="shared" ref="E33:G33" si="8">$L$2*E32</f>
-        <v>4983299.9999999991</v>
-      </c>
-      <c r="F33" s="181">
-        <f t="shared" si="8"/>
-        <v>5247900</v>
-      </c>
-      <c r="G33" s="181">
-        <f t="shared" si="8"/>
-        <v>5512500</v>
-      </c>
-      <c r="H33" s="184">
-        <f>L2*H32</f>
-        <v>5821200</v>
-      </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="244"/>
-      <c r="B34" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="31">
-        <f>365*2</f>
-        <v>730</v>
-      </c>
-      <c r="E34" s="31">
-        <f>365*2</f>
-        <v>730</v>
-      </c>
-      <c r="F34" s="24">
-        <f t="shared" ref="F34:H34" si="9">365*3</f>
-        <v>1095</v>
-      </c>
-      <c r="G34" s="24">
-        <f t="shared" si="9"/>
-        <v>1095</v>
-      </c>
-      <c r="H34" s="51">
-        <f t="shared" si="9"/>
-        <v>1095</v>
-      </c>
-      <c r="I34" s="49"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-    </row>
-    <row r="35" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="36" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="222" t="s">
-        <v>192</v>
-      </c>
-      <c r="B36" s="223"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="223"/>
-      <c r="E36" s="223"/>
-      <c r="F36" s="223"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="224"/>
-    </row>
-    <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="221" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="225" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="225" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="225" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="225"/>
-      <c r="F37" s="225"/>
-      <c r="G37" s="225"/>
-      <c r="H37" s="225"/>
-      <c r="I37" s="226"/>
-      <c r="J37" s="227"/>
-    </row>
-    <row r="38" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="221"/>
-      <c r="B38" s="225"/>
-      <c r="C38" s="225"/>
-      <c r="D38" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="54"/>
-      <c r="J38" s="55"/>
-    </row>
-    <row r="39" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="220" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39" s="49"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="220"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="186" t="s">
-        <v>991</v>
-      </c>
-      <c r="D40" s="179">
-        <f>$L$2*D39</f>
-        <v>5821200</v>
-      </c>
-      <c r="E40" s="179">
-        <f t="shared" ref="E40:G40" si="10">$L$2*E39</f>
-        <v>6129900</v>
-      </c>
-      <c r="F40" s="179">
-        <f t="shared" si="10"/>
-        <v>6438600</v>
-      </c>
-      <c r="G40" s="179">
-        <f t="shared" si="10"/>
-        <v>6791400</v>
-      </c>
-      <c r="H40" s="184">
-        <f>$L$2*H39</f>
-        <v>7144200.0000000009</v>
-      </c>
-      <c r="I40" s="49"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="220"/>
-      <c r="B41" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="23">
-        <v>730</v>
-      </c>
-      <c r="E41" s="23">
-        <v>1095</v>
-      </c>
-      <c r="F41" s="23">
-        <v>1095</v>
-      </c>
-      <c r="G41" s="28">
-        <v>1095</v>
-      </c>
-      <c r="H41" s="13">
-        <v>1095</v>
-      </c>
-      <c r="I41" s="49"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="220" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="220"/>
-      <c r="B43" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="220"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="186" t="s">
-        <v>991</v>
-      </c>
-      <c r="D44" s="179">
-        <f>$L$2*D43</f>
-        <v>5247900</v>
-      </c>
-      <c r="E44" s="179">
-        <f t="shared" ref="E44:F44" si="11">$L$2*E43</f>
-        <v>5512500</v>
-      </c>
-      <c r="F44" s="179">
-        <f t="shared" si="11"/>
-        <v>5821200</v>
-      </c>
-      <c r="G44" s="182">
-        <f>$L$2*G43</f>
-        <v>6129900</v>
-      </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="220"/>
-      <c r="B45" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="23">
-        <v>730</v>
-      </c>
-      <c r="E45" s="23">
-        <v>730</v>
-      </c>
-      <c r="F45" s="24">
-        <v>1095</v>
-      </c>
-      <c r="G45" s="13">
-        <v>1095</v>
-      </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="220" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="220"/>
-      <c r="B47" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="49"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="220"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="186" t="s">
-        <v>991</v>
-      </c>
-      <c r="D48" s="179">
-        <f>$L$2*D47</f>
-        <v>4983299.9999999991</v>
-      </c>
-      <c r="E48" s="183">
-        <f>$L$2*E47</f>
-        <v>5247900</v>
-      </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="1:56" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="220"/>
-      <c r="B49" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="23">
-        <v>730</v>
-      </c>
-      <c r="E49" s="28">
-        <v>730</v>
-      </c>
-      <c r="F49" s="57"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-    </row>
-    <row r="50" spans="1:56" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="220" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="37"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K50" s="44"/>
-    </row>
-    <row r="51" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A51" s="220"/>
-      <c r="B51" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A52" s="247"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="185" t="s">
-        <v>991</v>
-      </c>
-      <c r="D52" s="181">
-        <f>$L$2*D51</f>
-        <v>4983299.9999999991</v>
-      </c>
-      <c r="E52" s="181">
-        <f t="shared" ref="E52:I52" si="12">$L$2*E51</f>
-        <v>5247900</v>
-      </c>
-      <c r="F52" s="181">
-        <f t="shared" si="12"/>
-        <v>5512500</v>
-      </c>
-      <c r="G52" s="181">
-        <f t="shared" si="12"/>
-        <v>5821200</v>
-      </c>
-      <c r="H52" s="181">
-        <f t="shared" si="12"/>
-        <v>6129900</v>
-      </c>
-      <c r="I52" s="181">
-        <f t="shared" si="12"/>
-        <v>6438600</v>
-      </c>
-      <c r="J52" s="182">
-        <f>$L$2*J51</f>
-        <v>6791400</v>
-      </c>
-    </row>
-    <row r="53" spans="1:56" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="258"/>
-      <c r="B53" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="24">
-        <v>730</v>
-      </c>
-      <c r="E53" s="24">
-        <v>730</v>
-      </c>
-      <c r="F53" s="24">
-        <v>730</v>
-      </c>
-      <c r="G53" s="24">
-        <v>1095</v>
-      </c>
-      <c r="H53" s="24">
-        <v>1095</v>
-      </c>
-      <c r="I53" s="24">
-        <v>1095</v>
-      </c>
-      <c r="J53" s="13">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="54" spans="1:56" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:56" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="222" t="s">
-        <v>193</v>
-      </c>
-      <c r="B55" s="223"/>
-      <c r="C55" s="223"/>
-      <c r="D55" s="223"/>
-      <c r="E55" s="223"/>
-      <c r="F55" s="223"/>
-      <c r="G55" s="223"/>
-      <c r="H55" s="224"/>
-    </row>
-    <row r="56" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A56" s="228" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="225" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="225" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="237" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="238"/>
-      <c r="F56" s="238"/>
-      <c r="G56" s="238"/>
-      <c r="H56" s="239"/>
-    </row>
-    <row r="57" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A57" s="228"/>
-      <c r="B57" s="225"/>
-      <c r="C57" s="225"/>
-      <c r="D57" s="255"/>
-      <c r="E57" s="256"/>
-      <c r="F57" s="256"/>
-      <c r="G57" s="256"/>
-      <c r="H57" s="257"/>
-    </row>
-    <row r="58" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A58" s="249" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" s="23"/>
-      <c r="D58" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A59" s="250"/>
-      <c r="B59" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A60" s="250"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="185" t="s">
-        <v>991</v>
-      </c>
-      <c r="D60" s="181">
-        <f>$L$2*D59</f>
-        <v>4718700</v>
-      </c>
-      <c r="E60" s="181">
-        <f t="shared" ref="E60:G60" si="13">$L$2*E59</f>
-        <v>4983299.9999999991</v>
-      </c>
-      <c r="F60" s="181">
-        <f t="shared" si="13"/>
-        <v>5247900</v>
-      </c>
-      <c r="G60" s="181">
-        <f t="shared" si="13"/>
-        <v>5512500</v>
-      </c>
-      <c r="H60" s="182">
-        <f>$L$2*H59</f>
-        <v>5821200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:56" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="251"/>
-      <c r="B61" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D61" s="24">
-        <v>730</v>
-      </c>
-      <c r="E61" s="24">
-        <v>730</v>
-      </c>
-      <c r="F61" s="24">
-        <v>1095</v>
-      </c>
-      <c r="G61" s="24">
-        <v>1095</v>
-      </c>
-      <c r="H61" s="13">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="62" spans="1:56" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="36"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="9"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="9"/>
-      <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="9"/>
-      <c r="Z62" s="9"/>
-      <c r="AA62" s="9"/>
-      <c r="AB62" s="9"/>
-      <c r="AC62" s="9"/>
-      <c r="AD62" s="9"/>
-      <c r="AE62" s="9"/>
-      <c r="AF62" s="9"/>
-      <c r="AG62" s="9"/>
-      <c r="AH62" s="9"/>
-      <c r="AI62" s="9"/>
-      <c r="AJ62" s="9"/>
-      <c r="AK62" s="9"/>
-      <c r="AL62" s="9"/>
-      <c r="AM62" s="9"/>
-      <c r="AN62" s="9"/>
-      <c r="AP62" s="9"/>
-      <c r="AQ62" s="9"/>
-      <c r="AR62" s="9"/>
-      <c r="AS62" s="9"/>
-      <c r="AT62" s="9"/>
-      <c r="AU62" s="9"/>
-      <c r="AV62" s="9"/>
-      <c r="AW62" s="9"/>
-      <c r="AX62" s="9"/>
-      <c r="AY62" s="9"/>
-      <c r="AZ62" s="9"/>
-      <c r="BA62" s="9"/>
-      <c r="BB62" s="9"/>
-      <c r="BC62" s="9"/>
-      <c r="BD62" s="9"/>
-    </row>
-    <row r="63" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="245" t="s">
-        <v>194</v>
-      </c>
-      <c r="B63" s="246"/>
-      <c r="C63" s="246"/>
-      <c r="D63" s="246"/>
-      <c r="E63" s="246"/>
-      <c r="F63" s="246"/>
-      <c r="G63" s="246"/>
-      <c r="H63" s="254"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="9"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="T63" s="9"/>
-      <c r="U63" s="9"/>
-      <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="9"/>
-      <c r="Z63" s="9"/>
-      <c r="AA63" s="9"/>
-      <c r="AB63" s="9"/>
-      <c r="AC63" s="9"/>
-      <c r="AD63" s="9"/>
-      <c r="AE63" s="9"/>
-      <c r="AF63" s="9"/>
-      <c r="AG63" s="9"/>
-      <c r="AH63" s="9"/>
-      <c r="AI63" s="9"/>
-      <c r="AJ63" s="9"/>
-      <c r="AK63" s="9"/>
-      <c r="AL63" s="9"/>
-      <c r="AM63" s="9"/>
-      <c r="AN63" s="9"/>
-      <c r="AP63" s="9"/>
-      <c r="AQ63" s="9"/>
-      <c r="AR63" s="9"/>
-      <c r="AS63" s="9"/>
-      <c r="AT63" s="9"/>
-      <c r="AU63" s="9"/>
-      <c r="AV63" s="9"/>
-      <c r="AW63" s="9"/>
-      <c r="AX63" s="9"/>
-      <c r="AY63" s="9"/>
-      <c r="AZ63" s="9"/>
-      <c r="BA63" s="9"/>
-      <c r="BB63" s="9"/>
-      <c r="BC63" s="9"/>
-      <c r="BD63" s="9"/>
-    </row>
-    <row r="64" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="243" t="s">
-        <v>175</v>
-      </c>
-      <c r="B64" s="225" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="236" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="225" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="225"/>
-      <c r="F64" s="225"/>
-      <c r="G64" s="225"/>
-      <c r="H64" s="232"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="T64" s="9"/>
-      <c r="U64" s="9"/>
-      <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
-      <c r="X64" s="9"/>
-      <c r="Y64" s="9"/>
-      <c r="Z64" s="9"/>
-      <c r="AA64" s="9"/>
-      <c r="AB64" s="9"/>
-      <c r="AC64" s="9"/>
-      <c r="AD64" s="9"/>
-      <c r="AE64" s="9"/>
-      <c r="AF64" s="9"/>
-      <c r="AG64" s="9"/>
-      <c r="AH64" s="9"/>
-      <c r="AI64" s="9"/>
-      <c r="AJ64" s="9"/>
-      <c r="AK64" s="9"/>
-      <c r="AL64" s="9"/>
-      <c r="AM64" s="9"/>
-      <c r="AN64" s="9"/>
-      <c r="AP64" s="9"/>
-      <c r="AQ64" s="9"/>
-      <c r="AR64" s="9"/>
-      <c r="AS64" s="9"/>
-      <c r="AT64" s="9"/>
-      <c r="AU64" s="9"/>
-      <c r="AV64" s="9"/>
-      <c r="AW64" s="9"/>
-      <c r="AX64" s="9"/>
-      <c r="AY64" s="9"/>
-      <c r="AZ64" s="9"/>
-      <c r="BA64" s="9"/>
-      <c r="BB64" s="9"/>
-      <c r="BC64" s="9"/>
-      <c r="BD64" s="9"/>
-    </row>
-    <row r="65" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="243"/>
-      <c r="B65" s="225"/>
-      <c r="C65" s="236"/>
-      <c r="D65" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="8"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
-      <c r="AG65" s="9"/>
-      <c r="AH65" s="9"/>
-      <c r="AI65" s="9"/>
-      <c r="AJ65" s="9"/>
-      <c r="AK65" s="9"/>
-      <c r="AL65" s="9"/>
-      <c r="AM65" s="9"/>
-      <c r="AN65" s="9"/>
-      <c r="AP65" s="9"/>
-      <c r="AQ65" s="9"/>
-      <c r="AR65" s="9"/>
-      <c r="AS65" s="9"/>
-      <c r="AT65" s="9"/>
-      <c r="AU65" s="9"/>
-      <c r="AV65" s="9"/>
-      <c r="AW65" s="9"/>
-      <c r="AX65" s="9"/>
-      <c r="AY65" s="9"/>
-      <c r="AZ65" s="9"/>
-      <c r="BA65" s="9"/>
-      <c r="BB65" s="9"/>
-      <c r="BC65" s="9"/>
-      <c r="BD65" s="9"/>
-    </row>
-    <row r="66" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="247" t="s">
-        <v>179</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E66" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="J66" s="8"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="9"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="9"/>
-      <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="9"/>
-      <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
-      <c r="X66" s="9"/>
-      <c r="Y66" s="9"/>
-      <c r="Z66" s="9"/>
-      <c r="AA66" s="9"/>
-      <c r="AB66" s="9"/>
-      <c r="AC66" s="9"/>
-      <c r="AD66" s="9"/>
-      <c r="AE66" s="9"/>
-      <c r="AF66" s="9"/>
-      <c r="AG66" s="9"/>
-      <c r="AH66" s="9"/>
-      <c r="AI66" s="9"/>
-      <c r="AJ66" s="9"/>
-      <c r="AK66" s="9"/>
-      <c r="AL66" s="9"/>
-      <c r="AM66" s="9"/>
-      <c r="AN66" s="9"/>
-      <c r="AP66" s="9"/>
-      <c r="AQ66" s="9"/>
-      <c r="AR66" s="9"/>
-      <c r="AS66" s="9"/>
-      <c r="AT66" s="9"/>
-      <c r="AU66" s="9"/>
-      <c r="AV66" s="9"/>
-      <c r="AW66" s="9"/>
-      <c r="AX66" s="9"/>
-      <c r="AY66" s="9"/>
-      <c r="AZ66" s="9"/>
-      <c r="BA66" s="9"/>
-      <c r="BB66" s="9"/>
-      <c r="BC66" s="9"/>
-      <c r="BD66" s="9"/>
-    </row>
-    <row r="67" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="260"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="187" t="s">
-        <v>991</v>
-      </c>
-      <c r="D67" s="179">
-        <f>$L$2*D66</f>
-        <v>4718700</v>
-      </c>
-      <c r="E67" s="179">
-        <f t="shared" ref="E67:G67" si="14">$L$2*E66</f>
-        <v>4983299.9999999991</v>
-      </c>
-      <c r="F67" s="179">
-        <f t="shared" si="14"/>
-        <v>5247900</v>
-      </c>
-      <c r="G67" s="179">
-        <f t="shared" si="14"/>
-        <v>5512500</v>
-      </c>
-      <c r="H67" s="182">
-        <f>$L$2*H66</f>
-        <v>5821200</v>
-      </c>
-      <c r="J67" s="8"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="9"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="9"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="T67" s="9"/>
-      <c r="U67" s="9"/>
-      <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
-      <c r="X67" s="9"/>
-      <c r="Y67" s="9"/>
-      <c r="Z67" s="9"/>
-      <c r="AA67" s="9"/>
-      <c r="AB67" s="9"/>
-      <c r="AC67" s="9"/>
-      <c r="AD67" s="9"/>
-      <c r="AE67" s="9"/>
-      <c r="AF67" s="9"/>
-      <c r="AG67" s="9"/>
-      <c r="AH67" s="9"/>
-      <c r="AI67" s="9"/>
-      <c r="AJ67" s="9"/>
-      <c r="AK67" s="9"/>
-      <c r="AL67" s="9"/>
-      <c r="AM67" s="9"/>
-      <c r="AN67" s="9"/>
-      <c r="AP67" s="9"/>
-      <c r="AQ67" s="9"/>
-      <c r="AR67" s="9"/>
-      <c r="AS67" s="9"/>
-      <c r="AT67" s="9"/>
-      <c r="AU67" s="9"/>
-      <c r="AV67" s="9"/>
-      <c r="AW67" s="9"/>
-      <c r="AX67" s="9"/>
-      <c r="AY67" s="9"/>
-      <c r="AZ67" s="9"/>
-      <c r="BA67" s="9"/>
-      <c r="BB67" s="9"/>
-      <c r="BC67" s="9"/>
-      <c r="BD67" s="9"/>
-    </row>
-    <row r="68" spans="1:56" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="248"/>
-      <c r="B68" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D68" s="23">
-        <v>730</v>
-      </c>
-      <c r="E68" s="23">
-        <v>730</v>
-      </c>
-      <c r="F68" s="23">
-        <v>1095</v>
-      </c>
-      <c r="G68" s="29">
-        <v>1095</v>
-      </c>
-      <c r="H68" s="13">
-        <v>1095</v>
-      </c>
-      <c r="J68" s="8"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="9"/>
-      <c r="AA68" s="9"/>
-      <c r="AB68" s="9"/>
-      <c r="AC68" s="9"/>
-      <c r="AD68" s="9"/>
-      <c r="AE68" s="9"/>
-      <c r="AF68" s="9"/>
-      <c r="AG68" s="9"/>
-      <c r="AH68" s="9"/>
-      <c r="AI68" s="9"/>
-      <c r="AJ68" s="9"/>
-      <c r="AK68" s="9"/>
-      <c r="AL68" s="9"/>
-      <c r="AM68" s="9"/>
-      <c r="AN68" s="9"/>
-      <c r="AP68" s="9"/>
-      <c r="AQ68" s="9"/>
-      <c r="AR68" s="9"/>
-      <c r="AS68" s="9"/>
-      <c r="AT68" s="9"/>
-      <c r="AU68" s="9"/>
-      <c r="AV68" s="9"/>
-      <c r="AW68" s="9"/>
-      <c r="AX68" s="9"/>
-      <c r="AY68" s="9"/>
-      <c r="AZ68" s="9"/>
-      <c r="BA68" s="9"/>
-      <c r="BB68" s="9"/>
-      <c r="BC68" s="9"/>
-      <c r="BD68" s="9"/>
-    </row>
-    <row r="69" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="249" t="s">
-        <v>180</v>
-      </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="52"/>
-      <c r="H69" s="53"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="T69" s="9"/>
-      <c r="U69" s="9"/>
-      <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
-      <c r="X69" s="9"/>
-      <c r="Y69" s="9"/>
-      <c r="Z69" s="9"/>
-      <c r="AA69" s="9"/>
-      <c r="AB69" s="9"/>
-      <c r="AC69" s="9"/>
-      <c r="AD69" s="9"/>
-      <c r="AE69" s="9"/>
-      <c r="AF69" s="9"/>
-      <c r="AG69" s="9"/>
-      <c r="AH69" s="9"/>
-      <c r="AI69" s="9"/>
-      <c r="AJ69" s="9"/>
-      <c r="AK69" s="9"/>
-      <c r="AL69" s="9"/>
-      <c r="AM69" s="9"/>
-      <c r="AN69" s="9"/>
-      <c r="AP69" s="9"/>
-      <c r="AQ69" s="9"/>
-      <c r="AR69" s="9"/>
-      <c r="AS69" s="9"/>
-      <c r="AT69" s="9"/>
-      <c r="AU69" s="9"/>
-      <c r="AV69" s="9"/>
-      <c r="AW69" s="9"/>
-      <c r="AX69" s="9"/>
-      <c r="AY69" s="9"/>
-      <c r="AZ69" s="9"/>
-      <c r="BA69" s="9"/>
-      <c r="BB69" s="9"/>
-      <c r="BC69" s="9"/>
-      <c r="BD69" s="9"/>
-    </row>
-    <row r="70" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="250"/>
-      <c r="B70" s="252" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E70" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G70" s="49"/>
-      <c r="H70" s="20"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="9"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="9"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="9"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="9"/>
-      <c r="AB70" s="9"/>
-      <c r="AC70" s="9"/>
-      <c r="AD70" s="9"/>
-      <c r="AE70" s="9"/>
-      <c r="AF70" s="9"/>
-      <c r="AG70" s="9"/>
-      <c r="AH70" s="9"/>
-      <c r="AI70" s="9"/>
-      <c r="AJ70" s="9"/>
-      <c r="AK70" s="9"/>
-      <c r="AL70" s="9"/>
-      <c r="AM70" s="9"/>
-      <c r="AN70" s="9"/>
-      <c r="AP70" s="9"/>
-      <c r="AQ70" s="9"/>
-      <c r="AR70" s="9"/>
-      <c r="AS70" s="9"/>
-      <c r="AT70" s="9"/>
-      <c r="AU70" s="9"/>
-      <c r="AV70" s="9"/>
-      <c r="AW70" s="9"/>
-      <c r="AX70" s="9"/>
-      <c r="AY70" s="9"/>
-      <c r="AZ70" s="9"/>
-      <c r="BA70" s="9"/>
-      <c r="BB70" s="9"/>
-      <c r="BC70" s="9"/>
-      <c r="BD70" s="9"/>
-    </row>
-    <row r="71" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="250"/>
-      <c r="B71" s="261"/>
-      <c r="C71" s="188" t="s">
-        <v>991</v>
-      </c>
-      <c r="D71" s="181">
-        <f>$L$2*D70</f>
-        <v>4718700</v>
-      </c>
-      <c r="E71" s="181">
-        <f>$L$2*E70</f>
-        <v>4983299.9999999991</v>
-      </c>
-      <c r="F71" s="184">
-        <f>$L$2*F70</f>
-        <v>5247900</v>
-      </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="20"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
-      <c r="Q71" s="9"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="9"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="9"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="9"/>
-      <c r="AB71" s="9"/>
-      <c r="AC71" s="9"/>
-      <c r="AD71" s="9"/>
-      <c r="AE71" s="9"/>
-      <c r="AF71" s="9"/>
-      <c r="AG71" s="9"/>
-      <c r="AH71" s="9"/>
-      <c r="AI71" s="9"/>
-      <c r="AJ71" s="9"/>
-      <c r="AK71" s="9"/>
-      <c r="AL71" s="9"/>
-      <c r="AM71" s="9"/>
-      <c r="AN71" s="9"/>
-      <c r="AP71" s="9"/>
-      <c r="AQ71" s="9"/>
-      <c r="AR71" s="9"/>
-      <c r="AS71" s="9"/>
-      <c r="AT71" s="9"/>
-      <c r="AU71" s="9"/>
-      <c r="AV71" s="9"/>
-      <c r="AW71" s="9"/>
-      <c r="AX71" s="9"/>
-      <c r="AY71" s="9"/>
-      <c r="AZ71" s="9"/>
-      <c r="BA71" s="9"/>
-      <c r="BB71" s="9"/>
-      <c r="BC71" s="9"/>
-      <c r="BD71" s="9"/>
-    </row>
-    <row r="72" spans="1:56" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="251"/>
-      <c r="B72" s="253"/>
-      <c r="C72" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D72" s="24">
-        <v>730</v>
-      </c>
-      <c r="E72" s="24">
-        <v>1095</v>
-      </c>
-      <c r="F72" s="51">
-        <v>1095</v>
-      </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="20"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="T72" s="9"/>
-      <c r="U72" s="9"/>
-      <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="9"/>
-      <c r="AA72" s="9"/>
-      <c r="AB72" s="9"/>
-      <c r="AC72" s="9"/>
-      <c r="AD72" s="9"/>
-      <c r="AE72" s="9"/>
-      <c r="AF72" s="9"/>
-      <c r="AG72" s="9"/>
-      <c r="AH72" s="9"/>
-      <c r="AI72" s="9"/>
-      <c r="AJ72" s="9"/>
-      <c r="AK72" s="9"/>
-      <c r="AL72" s="9"/>
-      <c r="AM72" s="9"/>
-      <c r="AN72" s="9"/>
-      <c r="AP72" s="9"/>
-      <c r="AQ72" s="9"/>
-      <c r="AR72" s="9"/>
-      <c r="AS72" s="9"/>
-      <c r="AT72" s="9"/>
-      <c r="AU72" s="9"/>
-      <c r="AV72" s="9"/>
-      <c r="AW72" s="9"/>
-      <c r="AX72" s="9"/>
-      <c r="AY72" s="9"/>
-      <c r="AZ72" s="9"/>
-      <c r="BA72" s="9"/>
-      <c r="BB72" s="9"/>
-      <c r="BC72" s="9"/>
-      <c r="BD72" s="9"/>
-    </row>
-    <row r="73" spans="1:56" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="36"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="T73" s="9"/>
-      <c r="U73" s="9"/>
-      <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
-      <c r="X73" s="9"/>
-      <c r="Y73" s="9"/>
-      <c r="Z73" s="9"/>
-      <c r="AA73" s="9"/>
-      <c r="AB73" s="9"/>
-      <c r="AC73" s="9"/>
-      <c r="AD73" s="9"/>
-      <c r="AE73" s="9"/>
-      <c r="AF73" s="9"/>
-      <c r="AG73" s="9"/>
-      <c r="AH73" s="9"/>
-      <c r="AI73" s="9"/>
-      <c r="AJ73" s="9"/>
-      <c r="AK73" s="9"/>
-      <c r="AL73" s="9"/>
-      <c r="AM73" s="9"/>
-      <c r="AN73" s="9"/>
-      <c r="AP73" s="9"/>
-      <c r="AQ73" s="9"/>
-      <c r="AR73" s="9"/>
-      <c r="AS73" s="9"/>
-      <c r="AT73" s="9"/>
-      <c r="AU73" s="9"/>
-      <c r="AV73" s="9"/>
-      <c r="AW73" s="9"/>
-      <c r="AX73" s="9"/>
-      <c r="AY73" s="9"/>
-      <c r="AZ73" s="9"/>
-      <c r="BA73" s="9"/>
-      <c r="BB73" s="9"/>
-      <c r="BC73" s="9"/>
-      <c r="BD73" s="9"/>
-    </row>
-    <row r="74" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="233" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" s="235"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
-      <c r="Y74" s="9"/>
-      <c r="Z74" s="9"/>
-      <c r="AA74" s="9"/>
-      <c r="AB74" s="9"/>
-      <c r="AC74" s="9"/>
-      <c r="AD74" s="9"/>
-      <c r="AE74" s="9"/>
-      <c r="AF74" s="9"/>
-      <c r="AG74" s="9"/>
-      <c r="AH74" s="9"/>
-      <c r="AI74" s="9"/>
-      <c r="AJ74" s="9"/>
-      <c r="AK74" s="9"/>
-      <c r="AL74" s="9"/>
-      <c r="AM74" s="9"/>
-      <c r="AN74" s="9"/>
-      <c r="AP74" s="9"/>
-      <c r="AQ74" s="9"/>
-      <c r="AR74" s="9"/>
-      <c r="AS74" s="9"/>
-      <c r="AT74" s="9"/>
-      <c r="AU74" s="9"/>
-      <c r="AV74" s="9"/>
-      <c r="AW74" s="9"/>
-      <c r="AX74" s="9"/>
-      <c r="AY74" s="9"/>
-      <c r="AZ74" s="9"/>
-      <c r="BA74" s="9"/>
-      <c r="BB74" s="9"/>
-      <c r="BC74" s="9"/>
-      <c r="BD74" s="9"/>
-    </row>
-    <row r="75" spans="1:56" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B75" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" s="38"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
-      <c r="Q75" s="9"/>
-      <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="9"/>
-      <c r="U75" s="9"/>
-      <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
-      <c r="X75" s="9"/>
-      <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
-      <c r="AA75" s="9"/>
-      <c r="AB75" s="9"/>
-      <c r="AC75" s="9"/>
-      <c r="AD75" s="9"/>
-      <c r="AE75" s="9"/>
-      <c r="AF75" s="9"/>
-      <c r="AG75" s="9"/>
-      <c r="AH75" s="9"/>
-      <c r="AI75" s="9"/>
-      <c r="AJ75" s="9"/>
-      <c r="AK75" s="9"/>
-      <c r="AL75" s="9"/>
-      <c r="AM75" s="9"/>
-      <c r="AN75" s="9"/>
-      <c r="AP75" s="9"/>
-      <c r="AQ75" s="9"/>
-      <c r="AR75" s="9"/>
-      <c r="AS75" s="9"/>
-      <c r="AT75" s="9"/>
-      <c r="AU75" s="9"/>
-      <c r="AV75" s="9"/>
-      <c r="AW75" s="9"/>
-      <c r="AX75" s="9"/>
-      <c r="AY75" s="9"/>
-      <c r="AZ75" s="9"/>
-      <c r="BA75" s="9"/>
-      <c r="BB75" s="9"/>
-      <c r="BC75" s="9"/>
-      <c r="BD75" s="9"/>
-    </row>
-    <row r="76" spans="1:56" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="9"/>
-      <c r="P76" s="9"/>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
-      <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
-      <c r="AA76" s="9"/>
-      <c r="AB76" s="9"/>
-      <c r="AC76" s="9"/>
-      <c r="AD76" s="9"/>
-      <c r="AE76" s="9"/>
-      <c r="AF76" s="9"/>
-      <c r="AG76" s="9"/>
-      <c r="AH76" s="9"/>
-      <c r="AI76" s="9"/>
-      <c r="AJ76" s="9"/>
-      <c r="AK76" s="9"/>
-      <c r="AL76" s="9"/>
-      <c r="AM76" s="9"/>
-      <c r="AN76" s="9"/>
-      <c r="AP76" s="9"/>
-      <c r="AQ76" s="9"/>
-      <c r="AR76" s="9"/>
-      <c r="AS76" s="9"/>
-      <c r="AT76" s="9"/>
-      <c r="AU76" s="9"/>
-      <c r="AV76" s="9"/>
-      <c r="AW76" s="9"/>
-      <c r="AX76" s="9"/>
-      <c r="AY76" s="9"/>
-      <c r="AZ76" s="9"/>
-      <c r="BA76" s="9"/>
-      <c r="BB76" s="9"/>
-      <c r="BC76" s="9"/>
-      <c r="BD76" s="9"/>
-    </row>
-    <row r="77" spans="1:56" s="10" customFormat="1" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="38"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="9"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="9"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
-      <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
-      <c r="AA77" s="9"/>
-      <c r="AB77" s="9"/>
-      <c r="AC77" s="9"/>
-      <c r="AD77" s="9"/>
-      <c r="AE77" s="9"/>
-      <c r="AF77" s="9"/>
-      <c r="AG77" s="9"/>
-      <c r="AH77" s="9"/>
-      <c r="AI77" s="9"/>
-      <c r="AJ77" s="9"/>
-      <c r="AK77" s="9"/>
-      <c r="AL77" s="9"/>
-      <c r="AM77" s="9"/>
-      <c r="AN77" s="9"/>
-      <c r="AP77" s="9"/>
-      <c r="AQ77" s="9"/>
-      <c r="AR77" s="9"/>
-      <c r="AS77" s="9"/>
-      <c r="AT77" s="9"/>
-      <c r="AU77" s="9"/>
-      <c r="AV77" s="9"/>
-      <c r="AW77" s="9"/>
-      <c r="AX77" s="9"/>
-      <c r="AY77" s="9"/>
-      <c r="AZ77" s="9"/>
-      <c r="BA77" s="9"/>
-      <c r="BB77" s="9"/>
-      <c r="BC77" s="9"/>
-      <c r="BD77" s="9"/>
-    </row>
-    <row r="78" spans="1:56" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="36"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
-      <c r="Y78" s="9"/>
-      <c r="Z78" s="9"/>
-      <c r="AA78" s="9"/>
-      <c r="AB78" s="9"/>
-      <c r="AC78" s="9"/>
-      <c r="AD78" s="9"/>
-      <c r="AE78" s="9"/>
-      <c r="AF78" s="9"/>
-      <c r="AG78" s="9"/>
-      <c r="AH78" s="9"/>
-      <c r="AI78" s="9"/>
-      <c r="AJ78" s="9"/>
-      <c r="AK78" s="9"/>
-      <c r="AL78" s="9"/>
-      <c r="AM78" s="9"/>
-      <c r="AN78" s="9"/>
-      <c r="AP78" s="9"/>
-      <c r="AQ78" s="9"/>
-      <c r="AR78" s="9"/>
-      <c r="AS78" s="9"/>
-      <c r="AT78" s="9"/>
-      <c r="AU78" s="9"/>
-      <c r="AV78" s="9"/>
-      <c r="AW78" s="9"/>
-      <c r="AX78" s="9"/>
-      <c r="AY78" s="9"/>
-      <c r="AZ78" s="9"/>
-      <c r="BA78" s="9"/>
-      <c r="BB78" s="9"/>
-      <c r="BC78" s="9"/>
-      <c r="BD78" s="9"/>
-    </row>
-    <row r="79" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="245" t="s">
-        <v>197</v>
-      </c>
-      <c r="B79" s="246"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="9"/>
-      <c r="AA79" s="9"/>
-      <c r="AB79" s="9"/>
-      <c r="AC79" s="9"/>
-      <c r="AD79" s="9"/>
-      <c r="AE79" s="9"/>
-      <c r="AF79" s="9"/>
-      <c r="AG79" s="9"/>
-      <c r="AH79" s="9"/>
-      <c r="AI79" s="9"/>
-      <c r="AJ79" s="9"/>
-      <c r="AK79" s="9"/>
-      <c r="AL79" s="9"/>
-      <c r="AM79" s="9"/>
-      <c r="AN79" s="9"/>
-      <c r="AP79" s="9"/>
-      <c r="AQ79" s="9"/>
-      <c r="AR79" s="9"/>
-      <c r="AS79" s="9"/>
-      <c r="AT79" s="9"/>
-      <c r="AU79" s="9"/>
-      <c r="AV79" s="9"/>
-      <c r="AW79" s="9"/>
-      <c r="AX79" s="9"/>
-      <c r="AY79" s="9"/>
-      <c r="AZ79" s="9"/>
-      <c r="BA79" s="9"/>
-      <c r="BB79" s="9"/>
-      <c r="BC79" s="9"/>
-      <c r="BD79" s="9"/>
-    </row>
-    <row r="80" spans="1:56" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="49"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="9"/>
-      <c r="N80" s="9"/>
-      <c r="O80" s="9"/>
-      <c r="P80" s="9"/>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-      <c r="Y80" s="9"/>
-      <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
-      <c r="AB80" s="9"/>
-      <c r="AC80" s="9"/>
-      <c r="AD80" s="9"/>
-      <c r="AE80" s="9"/>
-      <c r="AF80" s="9"/>
-      <c r="AG80" s="9"/>
-      <c r="AH80" s="9"/>
-      <c r="AI80" s="9"/>
-      <c r="AJ80" s="9"/>
-      <c r="AK80" s="9"/>
-      <c r="AL80" s="9"/>
-      <c r="AM80" s="9"/>
-      <c r="AN80" s="9"/>
-      <c r="AP80" s="9"/>
-      <c r="AQ80" s="9"/>
-      <c r="AR80" s="9"/>
-      <c r="AS80" s="9"/>
-      <c r="AT80" s="9"/>
-      <c r="AU80" s="9"/>
-      <c r="AV80" s="9"/>
-      <c r="AW80" s="9"/>
-      <c r="AX80" s="9"/>
-      <c r="AY80" s="9"/>
-      <c r="AZ80" s="9"/>
-      <c r="BA80" s="9"/>
-      <c r="BB80" s="9"/>
-      <c r="BC80" s="9"/>
-      <c r="BD80" s="9"/>
-    </row>
-    <row r="81" spans="1:56" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A81" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="9"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="9"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="9"/>
-      <c r="Y81" s="9"/>
-      <c r="Z81" s="9"/>
-      <c r="AA81" s="9"/>
-      <c r="AB81" s="9"/>
-      <c r="AC81" s="9"/>
-      <c r="AD81" s="9"/>
-      <c r="AE81" s="9"/>
-      <c r="AF81" s="9"/>
-      <c r="AG81" s="9"/>
-      <c r="AH81" s="9"/>
-      <c r="AI81" s="9"/>
-      <c r="AJ81" s="9"/>
-      <c r="AK81" s="9"/>
-      <c r="AL81" s="9"/>
-      <c r="AM81" s="9"/>
-      <c r="AN81" s="9"/>
-      <c r="AP81" s="9"/>
-      <c r="AQ81" s="9"/>
-      <c r="AR81" s="9"/>
-      <c r="AS81" s="9"/>
-      <c r="AT81" s="9"/>
-      <c r="AU81" s="9"/>
-      <c r="AV81" s="9"/>
-      <c r="AW81" s="9"/>
-      <c r="AX81" s="9"/>
-      <c r="AY81" s="9"/>
-      <c r="AZ81" s="9"/>
-      <c r="BA81" s="9"/>
-      <c r="BB81" s="9"/>
-      <c r="BC81" s="9"/>
-      <c r="BD81" s="9"/>
-    </row>
-    <row r="82" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C82" s="49"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="9"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="9"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-      <c r="Y82" s="9"/>
-      <c r="Z82" s="9"/>
-      <c r="AA82" s="9"/>
-      <c r="AB82" s="9"/>
-      <c r="AC82" s="9"/>
-      <c r="AD82" s="9"/>
-      <c r="AE82" s="9"/>
-      <c r="AF82" s="9"/>
-      <c r="AG82" s="9"/>
-      <c r="AH82" s="9"/>
-      <c r="AI82" s="9"/>
-      <c r="AJ82" s="9"/>
-      <c r="AK82" s="9"/>
-      <c r="AL82" s="9"/>
-      <c r="AM82" s="9"/>
-      <c r="AN82" s="9"/>
-      <c r="AP82" s="9"/>
-      <c r="AQ82" s="9"/>
-      <c r="AR82" s="9"/>
-      <c r="AS82" s="9"/>
-      <c r="AT82" s="9"/>
-      <c r="AU82" s="9"/>
-      <c r="AV82" s="9"/>
-      <c r="AW82" s="9"/>
-      <c r="AX82" s="9"/>
-      <c r="AY82" s="9"/>
-      <c r="AZ82" s="9"/>
-      <c r="BA82" s="9"/>
-      <c r="BB82" s="9"/>
-      <c r="BC82" s="9"/>
-      <c r="BD82" s="9"/>
-    </row>
-    <row r="83" spans="1:56" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="49"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="9"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
-      <c r="Y83" s="9"/>
-      <c r="Z83" s="9"/>
-      <c r="AA83" s="9"/>
-      <c r="AB83" s="9"/>
-      <c r="AC83" s="9"/>
-      <c r="AD83" s="9"/>
-      <c r="AE83" s="9"/>
-      <c r="AF83" s="9"/>
-      <c r="AG83" s="9"/>
-      <c r="AH83" s="9"/>
-      <c r="AI83" s="9"/>
-      <c r="AJ83" s="9"/>
-      <c r="AK83" s="9"/>
-      <c r="AL83" s="9"/>
-      <c r="AM83" s="9"/>
-      <c r="AN83" s="9"/>
-      <c r="AP83" s="9"/>
-      <c r="AQ83" s="9"/>
-      <c r="AR83" s="9"/>
-      <c r="AS83" s="9"/>
-      <c r="AT83" s="9"/>
-      <c r="AU83" s="9"/>
-      <c r="AV83" s="9"/>
-      <c r="AW83" s="9"/>
-      <c r="AX83" s="9"/>
-      <c r="AY83" s="9"/>
-      <c r="AZ83" s="9"/>
-      <c r="BA83" s="9"/>
-      <c r="BB83" s="9"/>
-      <c r="BC83" s="9"/>
-      <c r="BD83" s="9"/>
-    </row>
-    <row r="84" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="9"/>
-      <c r="P84" s="9"/>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-      <c r="Y84" s="9"/>
-      <c r="Z84" s="9"/>
-      <c r="AA84" s="9"/>
-      <c r="AB84" s="9"/>
-      <c r="AC84" s="9"/>
-      <c r="AD84" s="9"/>
-      <c r="AE84" s="9"/>
-      <c r="AF84" s="9"/>
-      <c r="AG84" s="9"/>
-      <c r="AH84" s="9"/>
-      <c r="AI84" s="9"/>
-      <c r="AJ84" s="9"/>
-      <c r="AK84" s="9"/>
-      <c r="AL84" s="9"/>
-      <c r="AM84" s="9"/>
-      <c r="AN84" s="9"/>
-      <c r="AP84" s="9"/>
-      <c r="AQ84" s="9"/>
-      <c r="AR84" s="9"/>
-      <c r="AS84" s="9"/>
-      <c r="AT84" s="9"/>
-      <c r="AU84" s="9"/>
-      <c r="AV84" s="9"/>
-      <c r="AW84" s="9"/>
-      <c r="AX84" s="9"/>
-      <c r="AY84" s="9"/>
-      <c r="AZ84" s="9"/>
-      <c r="BA84" s="9"/>
-      <c r="BB84" s="9"/>
-      <c r="BC84" s="9"/>
-      <c r="BD84" s="9"/>
-    </row>
-    <row r="120" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="42"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9" t="e">
-        <f>+INDEX('Bang do (2)'!$D$51:$J$51,MATCH(Bangtheodoi!$G101,'Bang do (2)'!$B$51,0),MATCH($E120,'Bang do (2)'!$D$46:$E$46,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J120" s="8"/>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="9"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="9"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="9"/>
-      <c r="S120" s="9"/>
-      <c r="T120" s="9"/>
-      <c r="U120" s="9"/>
-      <c r="V120" s="9"/>
-      <c r="W120" s="9"/>
-      <c r="X120" s="9"/>
-      <c r="Y120" s="9"/>
-      <c r="Z120" s="9"/>
-      <c r="AA120" s="9"/>
-      <c r="AB120" s="9"/>
-      <c r="AC120" s="9"/>
-      <c r="AD120" s="9"/>
-      <c r="AE120" s="9"/>
-      <c r="AF120" s="9"/>
-      <c r="AG120" s="9"/>
-      <c r="AH120" s="9"/>
-      <c r="AI120" s="9"/>
-      <c r="AJ120" s="9"/>
-      <c r="AK120" s="9"/>
-      <c r="AL120" s="9"/>
-      <c r="AM120" s="9"/>
-      <c r="AN120" s="9"/>
-      <c r="AP120" s="9"/>
-      <c r="AQ120" s="9"/>
-      <c r="AR120" s="9"/>
-      <c r="AS120" s="9"/>
-      <c r="AT120" s="9"/>
-      <c r="AU120" s="9"/>
-      <c r="AV120" s="9"/>
-      <c r="AW120" s="9"/>
-      <c r="AX120" s="9"/>
-      <c r="AY120" s="9"/>
-      <c r="AZ120" s="9"/>
-      <c r="BA120" s="9"/>
-      <c r="BB120" s="9"/>
-      <c r="BC120" s="9"/>
-      <c r="BD120" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="D17:K18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:H57"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A79:B79"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/prisma/data/01.BangtheodoiBHXH-2025.xlsx
+++ b/prisma/data/01.BangtheodoiBHXH-2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fullstack\next-mantine-sqllite\prisma\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D316F-18B2-42F7-BB12-6C793DD04604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550A9324-C001-4218-A015-57E63895F210}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="foxz" sheetId="4" state="veryHidden" r:id="rId1"/>
@@ -4376,7 +4376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4458,6 +4458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5078,7 +5084,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -5641,18 +5647,12 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="40" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5664,30 +5664,21 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5711,11 +5702,95 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5738,9 +5813,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5749,24 +5821,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5777,56 +5831,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5836,6 +5842,35 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="24" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="15" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="15" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -9611,26 +9646,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="251" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="271" t="s">
+      <c r="B1" s="249" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="273" t="s">
+      <c r="C1" s="253" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="252" t="s">
+      <c r="D1" s="248" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="252"/>
-      <c r="F1" s="258"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="255"/>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="270"/>
-      <c r="B2" s="272"/>
-      <c r="C2" s="274"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="254"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -9891,56 +9926,56 @@
       <c r="A15" s="41"/>
     </row>
     <row r="16" spans="1:12" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="243" t="s">
+      <c r="A16" s="256" t="s">
         <v>165</v>
       </c>
-      <c r="B16" s="275"/>
-      <c r="C16" s="275"/>
-      <c r="D16" s="275"/>
-      <c r="E16" s="275"/>
-      <c r="F16" s="275"/>
-      <c r="G16" s="275"/>
-      <c r="H16" s="275"/>
-      <c r="I16" s="275"/>
-      <c r="J16" s="275"/>
-      <c r="K16" s="244"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="257"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="257"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="257"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="258"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17" s="270" t="s">
+      <c r="A17" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="252" t="s">
+      <c r="B17" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="257" t="s">
+      <c r="C17" s="259" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="259" t="s">
+      <c r="D17" s="260" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="260"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="260"/>
-      <c r="K17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="261"/>
+      <c r="I17" s="261"/>
+      <c r="J17" s="261"/>
+      <c r="K17" s="262"/>
     </row>
     <row r="18" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="270"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="257"/>
-      <c r="D18" s="276"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="277"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="277"/>
-      <c r="K18" s="278"/>
+      <c r="A18" s="251"/>
+      <c r="B18" s="248"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="264"/>
+      <c r="I18" s="264"/>
+      <c r="J18" s="264"/>
+      <c r="K18" s="265"/>
     </row>
     <row r="19" spans="1:24" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="265" t="s">
+      <c r="A19" s="243" t="s">
         <v>147</v>
       </c>
       <c r="B19" s="37"/>
@@ -9963,7 +9998,7 @@
       <c r="K19" s="44"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="265"/>
+      <c r="A20" s="243"/>
       <c r="B20" s="23" t="s">
         <v>146</v>
       </c>
@@ -9988,7 +10023,7 @@
       <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="265"/>
+      <c r="A21" s="243"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23" t="s">
         <v>991</v>
@@ -10015,7 +10050,7 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="265"/>
+      <c r="A22" s="243"/>
       <c r="B22" s="23" t="s">
         <v>146</v>
       </c>
@@ -10044,7 +10079,7 @@
       <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:24" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="265" t="s">
+      <c r="A23" s="243" t="s">
         <v>152</v>
       </c>
       <c r="B23" s="37"/>
@@ -10086,7 +10121,7 @@
       <c r="X23" s="142"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="265"/>
+      <c r="A24" s="243"/>
       <c r="B24" s="23" t="s">
         <v>151</v>
       </c>
@@ -10130,7 +10165,7 @@
       <c r="X24" s="142"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="265"/>
+      <c r="A25" s="243"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23" t="s">
         <v>991</v>
@@ -10180,7 +10215,7 @@
       <c r="X25" s="142"/>
     </row>
     <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="265"/>
+      <c r="A26" s="243"/>
       <c r="B26" s="23" t="s">
         <v>151</v>
       </c>
@@ -10221,7 +10256,7 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="265" t="s">
+      <c r="A27" s="243" t="s">
         <v>166</v>
       </c>
       <c r="B27" s="37"/>
@@ -10246,7 +10281,7 @@
       <c r="K27" s="55"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="265"/>
+      <c r="A28" s="243"/>
       <c r="B28" s="23" t="s">
         <v>161</v>
       </c>
@@ -10273,7 +10308,7 @@
       <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="265"/>
+      <c r="A29" s="243"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23" t="s">
         <v>991</v>
@@ -10303,7 +10338,7 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="265"/>
+      <c r="A30" s="243"/>
       <c r="B30" s="23" t="s">
         <v>161</v>
       </c>
@@ -10335,7 +10370,7 @@
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31" s="256" t="s">
+      <c r="A31" s="266" t="s">
         <v>163</v>
       </c>
       <c r="B31" s="37"/>
@@ -10360,7 +10395,7 @@
       <c r="K31" s="44"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="256"/>
+      <c r="A32" s="266"/>
       <c r="B32" s="23" t="s">
         <v>203</v>
       </c>
@@ -10387,7 +10422,7 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="249"/>
+      <c r="A33" s="272"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29" t="s">
         <v>991</v>
@@ -10417,7 +10452,7 @@
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="279"/>
+      <c r="A34" s="267"/>
       <c r="B34" s="24" t="s">
         <v>203</v>
       </c>
@@ -10450,43 +10485,43 @@
     </row>
     <row r="35" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="267" t="s">
+      <c r="A36" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="268"/>
-      <c r="C36" s="268"/>
-      <c r="D36" s="268"/>
-      <c r="E36" s="268"/>
-      <c r="F36" s="268"/>
-      <c r="G36" s="268"/>
-      <c r="H36" s="268"/>
-      <c r="I36" s="268"/>
-      <c r="J36" s="269"/>
+      <c r="B36" s="246"/>
+      <c r="C36" s="246"/>
+      <c r="D36" s="246"/>
+      <c r="E36" s="246"/>
+      <c r="F36" s="246"/>
+      <c r="G36" s="246"/>
+      <c r="H36" s="246"/>
+      <c r="I36" s="246"/>
+      <c r="J36" s="247"/>
     </row>
     <row r="37" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="280" t="s">
+      <c r="A37" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="252" t="s">
+      <c r="B37" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="252" t="s">
+      <c r="C37" s="248" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="252" t="s">
+      <c r="D37" s="248" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="252"/>
-      <c r="F37" s="252"/>
-      <c r="G37" s="252"/>
-      <c r="H37" s="252"/>
-      <c r="I37" s="271"/>
-      <c r="J37" s="281"/>
+      <c r="E37" s="248"/>
+      <c r="F37" s="248"/>
+      <c r="G37" s="248"/>
+      <c r="H37" s="248"/>
+      <c r="I37" s="249"/>
+      <c r="J37" s="250"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="280"/>
-      <c r="B38" s="252"/>
-      <c r="C38" s="252"/>
+      <c r="A38" s="244"/>
+      <c r="B38" s="248"/>
+      <c r="C38" s="248"/>
       <c r="D38" s="6" t="s">
         <v>6</v>
       </c>
@@ -10506,7 +10541,7 @@
       <c r="J38" s="55"/>
     </row>
     <row r="39" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="265" t="s">
+      <c r="A39" s="243" t="s">
         <v>168</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -10534,7 +10569,7 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="265"/>
+      <c r="A40" s="243"/>
       <c r="B40" s="23"/>
       <c r="C40" s="186" t="s">
         <v>991</v>
@@ -10563,7 +10598,7 @@
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="265"/>
+      <c r="A41" s="243"/>
       <c r="B41" s="23" t="s">
         <v>167</v>
       </c>
@@ -10589,7 +10624,7 @@
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="265" t="s">
+      <c r="A42" s="243" t="s">
         <v>171</v>
       </c>
       <c r="B42" s="37"/>
@@ -10611,7 +10646,7 @@
       <c r="J42" s="60"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="265"/>
+      <c r="A43" s="243"/>
       <c r="B43" s="23" t="s">
         <v>170</v>
       </c>
@@ -10635,7 +10670,7 @@
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="265"/>
+      <c r="A44" s="243"/>
       <c r="B44" s="23"/>
       <c r="C44" s="186" t="s">
         <v>991</v>
@@ -10661,7 +10696,7 @@
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="265"/>
+      <c r="A45" s="243"/>
       <c r="B45" s="23" t="s">
         <v>170</v>
       </c>
@@ -10685,7 +10720,7 @@
       <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="265" t="s">
+      <c r="A46" s="243" t="s">
         <v>173</v>
       </c>
       <c r="B46" s="37"/>
@@ -10703,7 +10738,7 @@
       <c r="J46" s="34"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="265"/>
+      <c r="A47" s="243"/>
       <c r="B47" s="23" t="s">
         <v>172</v>
       </c>
@@ -10723,7 +10758,7 @@
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="265"/>
+      <c r="A48" s="243"/>
       <c r="B48" s="23"/>
       <c r="C48" s="186" t="s">
         <v>991</v>
@@ -10743,7 +10778,7 @@
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:56" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="265"/>
+      <c r="A49" s="243"/>
       <c r="B49" s="23" t="s">
         <v>172</v>
       </c>
@@ -10763,7 +10798,7 @@
       <c r="J49" s="58"/>
     </row>
     <row r="50" spans="1:56" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="265" t="s">
+      <c r="A50" s="243" t="s">
         <v>174</v>
       </c>
       <c r="B50" s="37"/>
@@ -10792,7 +10827,7 @@
       <c r="K50" s="44"/>
     </row>
     <row r="51" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A51" s="265"/>
+      <c r="A51" s="243"/>
       <c r="B51" s="23" t="s">
         <v>204</v>
       </c>
@@ -10822,7 +10857,7 @@
       </c>
     </row>
     <row r="52" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A52" s="247"/>
+      <c r="A52" s="270"/>
       <c r="B52" s="29"/>
       <c r="C52" s="185" t="s">
         <v>991</v>
@@ -10857,7 +10892,7 @@
       </c>
     </row>
     <row r="53" spans="1:56" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="266"/>
+      <c r="A53" s="281"/>
       <c r="B53" s="24" t="s">
         <v>204</v>
       </c>
@@ -10888,47 +10923,47 @@
     </row>
     <row r="54" spans="1:56" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="55" spans="1:56" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="267" t="s">
+      <c r="A55" s="245" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="268"/>
-      <c r="C55" s="268"/>
-      <c r="D55" s="268"/>
-      <c r="E55" s="268"/>
-      <c r="F55" s="268"/>
-      <c r="G55" s="268"/>
-      <c r="H55" s="269"/>
+      <c r="B55" s="246"/>
+      <c r="C55" s="246"/>
+      <c r="D55" s="246"/>
+      <c r="E55" s="246"/>
+      <c r="F55" s="246"/>
+      <c r="G55" s="246"/>
+      <c r="H55" s="247"/>
     </row>
     <row r="56" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A56" s="270" t="s">
+      <c r="A56" s="251" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="252" t="s">
+      <c r="B56" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="252" t="s">
+      <c r="C56" s="248" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="259" t="s">
+      <c r="D56" s="260" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="260"/>
-      <c r="F56" s="260"/>
-      <c r="G56" s="260"/>
-      <c r="H56" s="261"/>
+      <c r="E56" s="261"/>
+      <c r="F56" s="261"/>
+      <c r="G56" s="261"/>
+      <c r="H56" s="262"/>
     </row>
     <row r="57" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A57" s="270"/>
-      <c r="B57" s="252"/>
-      <c r="C57" s="252"/>
-      <c r="D57" s="262"/>
-      <c r="E57" s="263"/>
-      <c r="F57" s="263"/>
-      <c r="G57" s="263"/>
-      <c r="H57" s="264"/>
+      <c r="A57" s="251"/>
+      <c r="B57" s="248"/>
+      <c r="C57" s="248"/>
+      <c r="D57" s="278"/>
+      <c r="E57" s="279"/>
+      <c r="F57" s="279"/>
+      <c r="G57" s="279"/>
+      <c r="H57" s="280"/>
     </row>
     <row r="58" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A58" s="249" t="s">
+      <c r="A58" s="272" t="s">
         <v>177</v>
       </c>
       <c r="B58" s="23"/>
@@ -10949,7 +10984,7 @@
       </c>
     </row>
     <row r="59" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A59" s="250"/>
+      <c r="A59" s="273"/>
       <c r="B59" s="23" t="s">
         <v>176</v>
       </c>
@@ -10973,7 +11008,7 @@
       </c>
     </row>
     <row r="60" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A60" s="250"/>
+      <c r="A60" s="273"/>
       <c r="B60" s="29"/>
       <c r="C60" s="185" t="s">
         <v>991</v>
@@ -11000,7 +11035,7 @@
       </c>
     </row>
     <row r="61" spans="1:56" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="251"/>
+      <c r="A61" s="274"/>
       <c r="B61" s="24" t="s">
         <v>176</v>
       </c>
@@ -11080,16 +11115,16 @@
       <c r="BD62" s="9"/>
     </row>
     <row r="63" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="245" t="s">
+      <c r="A63" s="268" t="s">
         <v>194</v>
       </c>
-      <c r="B63" s="246"/>
-      <c r="C63" s="246"/>
-      <c r="D63" s="246"/>
-      <c r="E63" s="246"/>
-      <c r="F63" s="246"/>
-      <c r="G63" s="246"/>
-      <c r="H63" s="255"/>
+      <c r="B63" s="269"/>
+      <c r="C63" s="269"/>
+      <c r="D63" s="269"/>
+      <c r="E63" s="269"/>
+      <c r="F63" s="269"/>
+      <c r="G63" s="269"/>
+      <c r="H63" s="277"/>
       <c r="J63" s="8"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -11138,22 +11173,22 @@
       <c r="BD63" s="9"/>
     </row>
     <row r="64" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="256" t="s">
+      <c r="A64" s="266" t="s">
         <v>175</v>
       </c>
-      <c r="B64" s="252" t="s">
+      <c r="B64" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="257" t="s">
+      <c r="C64" s="259" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="252" t="s">
+      <c r="D64" s="248" t="s">
         <v>128</v>
       </c>
-      <c r="E64" s="252"/>
-      <c r="F64" s="252"/>
-      <c r="G64" s="252"/>
-      <c r="H64" s="258"/>
+      <c r="E64" s="248"/>
+      <c r="F64" s="248"/>
+      <c r="G64" s="248"/>
+      <c r="H64" s="255"/>
       <c r="J64" s="8"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
@@ -11202,9 +11237,9 @@
       <c r="BD64" s="9"/>
     </row>
     <row r="65" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="256"/>
-      <c r="B65" s="252"/>
-      <c r="C65" s="257"/>
+      <c r="A65" s="266"/>
+      <c r="B65" s="248"/>
+      <c r="C65" s="259"/>
       <c r="D65" s="6" t="s">
         <v>6</v>
       </c>
@@ -11268,7 +11303,7 @@
       <c r="BD65" s="9"/>
     </row>
     <row r="66" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="247" t="s">
+      <c r="A66" s="270" t="s">
         <v>179</v>
       </c>
       <c r="B66" s="29" t="s">
@@ -11413,7 +11448,7 @@
       <c r="BD67" s="9"/>
     </row>
     <row r="68" spans="1:56" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="248"/>
+      <c r="A68" s="271"/>
       <c r="B68" s="29" t="s">
         <v>178</v>
       </c>
@@ -11483,7 +11518,7 @@
       <c r="BD68" s="9"/>
     </row>
     <row r="69" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="249" t="s">
+      <c r="A69" s="272" t="s">
         <v>180</v>
       </c>
       <c r="B69" s="50"/>
@@ -11547,8 +11582,8 @@
       <c r="BD69" s="9"/>
     </row>
     <row r="70" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="250"/>
-      <c r="B70" s="253" t="s">
+      <c r="A70" s="273"/>
+      <c r="B70" s="275" t="s">
         <v>181</v>
       </c>
       <c r="C70" s="7" t="s">
@@ -11613,7 +11648,7 @@
       <c r="BD70" s="9"/>
     </row>
     <row r="71" spans="1:56" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="250"/>
+      <c r="A71" s="273"/>
       <c r="B71" s="284"/>
       <c r="C71" s="188" t="s">
         <v>991</v>
@@ -11680,8 +11715,8 @@
       <c r="BD71" s="9"/>
     </row>
     <row r="72" spans="1:56" s="10" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="251"/>
-      <c r="B72" s="254"/>
+      <c r="A72" s="274"/>
+      <c r="B72" s="276"/>
       <c r="C72" s="17" t="s">
         <v>135</v>
       </c>
@@ -11800,10 +11835,10 @@
       <c r="BD73" s="9"/>
     </row>
     <row r="74" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="243" t="s">
+      <c r="A74" s="256" t="s">
         <v>196</v>
       </c>
-      <c r="B74" s="244"/>
+      <c r="B74" s="258"/>
       <c r="C74" s="46"/>
       <c r="D74" s="47"/>
       <c r="E74" s="9"/>
@@ -12094,10 +12129,10 @@
       <c r="BD78" s="9"/>
     </row>
     <row r="79" spans="1:56" s="10" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="245" t="s">
+      <c r="A79" s="268" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="246"/>
+      <c r="B79" s="269"/>
       <c r="C79" s="62"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
@@ -12504,11 +12539,27 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="D17:K18"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="A55:H55"/>
     <mergeCell ref="A58:A61"/>
@@ -12521,27 +12572,11 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:H57"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D17:K18"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A79:B79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14880,7 +14915,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="226" t="s">
         <v>436</v>
       </c>
       <c r="B1" s="220"/>
@@ -14890,7 +14925,7 @@
       <c r="F1" s="220"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="219" t="s">
+      <c r="A2" s="226" t="s">
         <v>437</v>
       </c>
       <c r="B2" s="220"/>
@@ -14900,7 +14935,7 @@
       <c r="F2" s="220"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="226" t="s">
         <v>438</v>
       </c>
       <c r="B3" s="220"/>
@@ -14910,7 +14945,7 @@
       <c r="F3" s="220"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="227" t="s">
         <v>439</v>
       </c>
       <c r="B5" s="220"/>
@@ -14933,7 +14968,7 @@
       <c r="S5" s="220"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="222" t="s">
+      <c r="A6" s="228" t="s">
         <v>440</v>
       </c>
       <c r="B6" s="220"/>
@@ -14956,183 +14991,183 @@
       <c r="S6" s="220"/>
     </row>
     <row r="8" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="224" t="s">
+      <c r="A8" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="224" t="s">
+      <c r="B8" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="222" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="224" t="s">
+      <c r="D8" s="222" t="s">
         <v>441</v>
       </c>
-      <c r="E8" s="224" t="s">
+      <c r="E8" s="222" t="s">
         <v>442</v>
       </c>
-      <c r="F8" s="224" t="s">
+      <c r="F8" s="222" t="s">
         <v>443</v>
       </c>
-      <c r="G8" s="224" t="s">
+      <c r="G8" s="222" t="s">
         <v>257</v>
       </c>
-      <c r="H8" s="224" t="s">
+      <c r="H8" s="222" t="s">
         <v>444</v>
       </c>
       <c r="I8" s="146" t="s">
         <v>445</v>
       </c>
-      <c r="J8" s="224" t="s">
+      <c r="J8" s="222" t="s">
         <v>446</v>
       </c>
-      <c r="K8" s="224" t="s">
+      <c r="K8" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="L8" s="224" t="s">
+      <c r="L8" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="M8" s="224" t="s">
+      <c r="M8" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="N8" s="224" t="s">
+      <c r="N8" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="O8" s="224" t="s">
+      <c r="O8" s="222" t="s">
         <v>448</v>
       </c>
-      <c r="P8" s="224" t="s">
+      <c r="P8" s="222" t="s">
         <v>449</v>
       </c>
-      <c r="Q8" s="224" t="s">
+      <c r="Q8" s="222" t="s">
         <v>450</v>
       </c>
-      <c r="R8" s="224" t="s">
+      <c r="R8" s="222" t="s">
         <v>451</v>
       </c>
-      <c r="S8" s="224" t="s">
+      <c r="S8" s="222" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="224" t="s">
+      <c r="A9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="B9" s="224" t="s">
+      <c r="B9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="C9" s="224" t="s">
+      <c r="C9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="D9" s="224" t="s">
+      <c r="D9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="E9" s="224" t="s">
+      <c r="E9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="F9" s="224" t="s">
+      <c r="F9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="G9" s="224" t="s">
+      <c r="G9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="H9" s="224" t="s">
+      <c r="H9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="I9" s="224" t="s">
+      <c r="I9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="J9" s="224" t="s">
+      <c r="J9" s="222" t="s">
         <v>453</v>
       </c>
-      <c r="K9" s="224" t="s">
+      <c r="K9" s="222" t="s">
         <v>454</v>
       </c>
-      <c r="L9" s="224" t="s">
+      <c r="L9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="M9" s="224" t="s">
+      <c r="M9" s="222" t="s">
         <v>447</v>
       </c>
       <c r="N9" s="146" t="s">
         <v>447</v>
       </c>
-      <c r="O9" s="224" t="s">
+      <c r="O9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="P9" s="224" t="s">
+      <c r="P9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="Q9" s="224" t="s">
+      <c r="Q9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="R9" s="224" t="s">
+      <c r="R9" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="S9" s="224" t="s">
+      <c r="S9" s="222" t="s">
         <v>447</v>
       </c>
       <c r="T9" s="220"/>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="E10" s="224" t="s">
+      <c r="E10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="F10" s="224" t="s">
+      <c r="F10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="G10" s="224" t="s">
+      <c r="G10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="H10" s="224" t="s">
+      <c r="H10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="I10" s="224" t="s">
+      <c r="I10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="J10" s="224" t="s">
+      <c r="J10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="K10" s="224" t="s">
+      <c r="K10" s="222" t="s">
         <v>258</v>
       </c>
-      <c r="L10" s="224" t="s">
+      <c r="L10" s="222" t="s">
         <v>455</v>
       </c>
-      <c r="M10" s="224" t="s">
+      <c r="M10" s="222" t="s">
         <v>456</v>
       </c>
       <c r="N10" s="146" t="s">
         <v>457</v>
       </c>
-      <c r="O10" s="224" t="s">
+      <c r="O10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="P10" s="224" t="s">
+      <c r="P10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="Q10" s="224" t="s">
+      <c r="Q10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="R10" s="224" t="s">
+      <c r="R10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="S10" s="224" t="s">
+      <c r="S10" s="222" t="s">
         <v>447</v>
       </c>
-      <c r="T10" s="224" t="s">
+      <c r="T10" s="222" t="s">
         <v>447</v>
       </c>
     </row>
@@ -20339,31 +20374,31 @@
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A113" s="225" t="s">
+      <c r="A113" s="223" t="s">
         <v>894</v>
       </c>
-      <c r="B113" s="225" t="s">
+      <c r="B113" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="C113" s="225" t="s">
+      <c r="C113" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="D113" s="225" t="s">
+      <c r="D113" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="E113" s="225" t="s">
+      <c r="E113" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="F113" s="225" t="s">
+      <c r="F113" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="G113" s="225" t="s">
+      <c r="G113" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="H113" s="225" t="s">
+      <c r="H113" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="I113" s="226" t="s">
+      <c r="I113" s="224" t="s">
         <v>447</v>
       </c>
       <c r="J113" s="152"/>
@@ -20380,31 +20415,31 @@
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A114" s="225" t="s">
+      <c r="A114" s="223" t="s">
         <v>895</v>
       </c>
-      <c r="B114" s="225" t="s">
+      <c r="B114" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="C114" s="225" t="s">
+      <c r="C114" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="D114" s="225" t="s">
+      <c r="D114" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="E114" s="225" t="s">
+      <c r="E114" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="F114" s="225" t="s">
+      <c r="F114" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="G114" s="225" t="s">
+      <c r="G114" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="H114" s="225" t="s">
+      <c r="H114" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="I114" s="225" t="s">
+      <c r="I114" s="223" t="s">
         <v>447</v>
       </c>
       <c r="J114" s="151">
@@ -20431,46 +20466,46 @@
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A115" s="225" t="s">
+      <c r="A115" s="223" t="s">
         <v>896</v>
       </c>
-      <c r="B115" s="225" t="s">
+      <c r="B115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="C115" s="225" t="s">
+      <c r="C115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="D115" s="225" t="s">
+      <c r="D115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="E115" s="225" t="s">
+      <c r="E115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="F115" s="225" t="s">
+      <c r="F115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="G115" s="225" t="s">
+      <c r="G115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="H115" s="225" t="s">
+      <c r="H115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="I115" s="225" t="s">
+      <c r="I115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="J115" s="225" t="s">
+      <c r="J115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="K115" s="225" t="s">
+      <c r="K115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="L115" s="225" t="s">
+      <c r="L115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="M115" s="225" t="s">
+      <c r="M115" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="N115" s="225" t="s">
+      <c r="N115" s="223" t="s">
         <v>447</v>
       </c>
       <c r="O115" s="151">
@@ -20490,7 +20525,7 @@
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A116" s="223" t="s">
+      <c r="A116" s="225" t="s">
         <v>897</v>
       </c>
       <c r="B116" s="220"/>
@@ -20503,7 +20538,7 @@
       <c r="C117" s="154">
         <v>102</v>
       </c>
-      <c r="N117" s="228" t="s">
+      <c r="N117" s="221" t="s">
         <v>899</v>
       </c>
       <c r="O117" s="220"/>
@@ -20516,21 +20551,21 @@
       <c r="C118" s="154">
         <v>102</v>
       </c>
-      <c r="F118" s="227" t="s">
+      <c r="F118" s="219" t="s">
         <v>901</v>
       </c>
       <c r="G118" s="220"/>
-      <c r="H118" s="227" t="s">
+      <c r="H118" s="219" t="s">
         <v>902</v>
       </c>
       <c r="I118" s="220"/>
       <c r="J118" s="220"/>
-      <c r="K118" s="227" t="s">
+      <c r="K118" s="219" t="s">
         <v>903</v>
       </c>
       <c r="L118" s="220"/>
       <c r="M118" s="220"/>
-      <c r="N118" s="227" t="s">
+      <c r="N118" s="219" t="s">
         <v>904</v>
       </c>
       <c r="O118" s="220"/>
@@ -20543,21 +20578,21 @@
       <c r="C119" s="154">
         <v>654355800</v>
       </c>
-      <c r="F119" s="228" t="s">
+      <c r="F119" s="221" t="s">
         <v>906</v>
       </c>
       <c r="G119" s="220"/>
-      <c r="H119" s="228" t="s">
+      <c r="H119" s="221" t="s">
         <v>906</v>
       </c>
       <c r="I119" s="220"/>
       <c r="J119" s="220"/>
-      <c r="K119" s="228" t="s">
+      <c r="K119" s="221" t="s">
         <v>906</v>
       </c>
       <c r="L119" s="220"/>
       <c r="M119" s="220"/>
-      <c r="N119" s="228" t="s">
+      <c r="N119" s="221" t="s">
         <v>906</v>
       </c>
       <c r="O119" s="220"/>
@@ -20591,7 +20626,7 @@
       <c r="C123" s="154">
         <v>29446030</v>
       </c>
-      <c r="F123" s="227" t="s">
+      <c r="F123" s="219" t="s">
         <v>911</v>
       </c>
       <c r="G123" s="220"/>
@@ -20630,23 +20665,11 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="F123:G123"/>
-    <mergeCell ref="N117:P117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="K118:M118"/>
-    <mergeCell ref="N118:P118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="K119:M119"/>
-    <mergeCell ref="N119:P119"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="A114:I114"/>
-    <mergeCell ref="A115:I115"/>
-    <mergeCell ref="J115:N115"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="A6:S6"/>
     <mergeCell ref="A116:C116"/>
     <mergeCell ref="Q8:Q10"/>
     <mergeCell ref="R8:R10"/>
@@ -20663,11 +20686,23 @@
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="A114:I114"/>
+    <mergeCell ref="A115:I115"/>
+    <mergeCell ref="J115:N115"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F123:G123"/>
+    <mergeCell ref="N117:P117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="K118:M118"/>
+    <mergeCell ref="N118:P118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="K119:M119"/>
+    <mergeCell ref="N119:P119"/>
   </mergeCells>
   <pageMargins left="6.25E-2" right="5.2083333333333336E-2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -20679,10 +20714,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="H4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -20705,42 +20740,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
+      <c r="B1" s="231"/>
+      <c r="C1" s="231"/>
+      <c r="D1" s="231"/>
+      <c r="E1" s="231"/>
+      <c r="F1" s="231"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="238" t="s">
+      <c r="I1" s="233" t="s">
         <v>207</v>
       </c>
-      <c r="J1" s="238"/>
-      <c r="K1" s="238"/>
-      <c r="L1" s="238"/>
-      <c r="M1" s="238"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="232"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="239" t="s">
+      <c r="I2" s="234" t="s">
         <v>246</v>
       </c>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="67"/>
@@ -20751,40 +20786,40 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="237" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="237"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
+      <c r="H4" s="237"/>
+      <c r="I4" s="237"/>
+      <c r="J4" s="237"/>
+      <c r="K4" s="237"/>
+      <c r="L4" s="237"/>
+      <c r="M4" s="237"/>
+      <c r="N4" s="237"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="242" t="s">
+      <c r="A5" s="237" t="s">
         <v>985</v>
       </c>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
-      <c r="N5" s="242"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="237"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="237"/>
+      <c r="L5" s="237"/>
+      <c r="M5" s="237"/>
+      <c r="N5" s="237"/>
     </row>
     <row r="6" spans="1:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -20813,66 +20848,66 @@
       <c r="N7" s="105"/>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="232" t="s">
+      <c r="C8" s="229" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="234" t="s">
+      <c r="D8" s="241" t="s">
         <v>347</v>
       </c>
-      <c r="E8" s="235"/>
-      <c r="F8" s="231" t="s">
+      <c r="E8" s="242"/>
+      <c r="F8" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="232" t="s">
+      <c r="G8" s="229" t="s">
         <v>126</v>
       </c>
-      <c r="H8" s="232" t="s">
+      <c r="H8" s="229" t="s">
         <v>199</v>
       </c>
-      <c r="I8" s="240" t="s">
+      <c r="I8" s="235" t="s">
         <v>200</v>
       </c>
-      <c r="J8" s="232" t="s">
+      <c r="J8" s="229" t="s">
         <v>142</v>
       </c>
-      <c r="K8" s="232" t="s">
+      <c r="K8" s="229" t="s">
         <v>201</v>
       </c>
-      <c r="L8" s="240" t="s">
+      <c r="L8" s="235" t="s">
         <v>202</v>
       </c>
-      <c r="M8" s="232" t="s">
+      <c r="M8" s="229" t="s">
         <v>206</v>
       </c>
-      <c r="N8" s="232" t="s">
+      <c r="N8" s="229" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="231"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="233"/>
+      <c r="A9" s="240"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="230"/>
       <c r="D9" s="112" t="s">
         <v>348</v>
       </c>
       <c r="E9" s="112" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="231"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="233"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="241"/>
-      <c r="M9" s="233"/>
-      <c r="N9" s="233"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="230"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="230"/>
+      <c r="N9" s="230"/>
     </row>
     <row r="10" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
@@ -20894,45 +20929,45 @@
       <c r="M10" s="106"/>
       <c r="N10" s="106"/>
     </row>
-    <row r="11" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82">
+    <row r="11" spans="1:14" s="292" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="285">
         <v>1</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="286" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="100" t="s">
+      <c r="C11" s="287" t="s">
         <v>556</v>
       </c>
-      <c r="D11" s="113">
+      <c r="D11" s="288">
         <v>44136</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="84">
+      <c r="E11" s="286"/>
+      <c r="F11" s="289">
         <v>3.8</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="285" t="s">
         <v>944</v>
       </c>
-      <c r="H11" s="82" t="s">
+      <c r="H11" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="116">
+      <c r="I11" s="290">
         <f>+INDEX('Bang do'!$D$7:$F$10,MATCH(Bangtheodoi!G11,'Bang do'!$B$7:$B$10,0),MATCH(Bangtheodoi!H11,'Bang do'!$D$2:$F$2,0))</f>
         <v>1095</v>
       </c>
-      <c r="J11" s="84">
+      <c r="J11" s="289">
         <v>3.8</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="291">
         <v>45474</v>
       </c>
-      <c r="L11" s="140">
+      <c r="L11" s="291">
         <f>+K11+I11</f>
         <v>46569</v>
       </c>
-      <c r="M11" s="82"/>
-      <c r="N11" s="138" t="s">
+      <c r="M11" s="285"/>
+      <c r="N11" s="293" t="s">
         <v>947</v>
       </c>
     </row>
@@ -20997,136 +21032,136 @@
         <v>989</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82">
+    <row r="14" spans="1:14" s="292" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="285">
         <f>+A11+1</f>
         <v>2</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="286" t="s">
         <v>987</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="287" t="s">
         <v>560</v>
       </c>
-      <c r="D14" s="113">
+      <c r="D14" s="288">
         <v>45661</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84">
+      <c r="E14" s="286"/>
+      <c r="F14" s="289">
         <v>2.77</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="285" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="116">
+      <c r="I14" s="290">
         <v>1095</v>
       </c>
-      <c r="J14" s="82" t="str">
+      <c r="J14" s="285" t="str">
         <f>+INDEX('Bang do'!$D$4:$F$6,MATCH(Bangtheodoi!G14,'Bang do'!$B$4:$B$6,0),MATCH(Bangtheodoi!H14,'Bang do'!$D$2:$F$2,0))</f>
         <v>2,77</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="291">
         <v>45661</v>
       </c>
-      <c r="L14" s="95"/>
-      <c r="M14" s="82" t="s">
+      <c r="L14" s="291"/>
+      <c r="M14" s="285" t="s">
         <v>389</v>
       </c>
-      <c r="N14" s="138" t="s">
+      <c r="N14" s="293" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="82">
+    <row r="15" spans="1:14" s="292" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="285">
         <f>+A14+1</f>
         <v>3</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="286" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="287" t="s">
         <v>483</v>
       </c>
-      <c r="D15" s="113">
+      <c r="D15" s="288">
         <v>42522</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="84">
+      <c r="E15" s="286"/>
+      <c r="F15" s="289">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G15" s="82" t="s">
+      <c r="G15" s="285" t="s">
         <v>136</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="116">
+      <c r="I15" s="290">
         <f>+INDEX('Bang do'!$D$8:$F$10,MATCH(Bangtheodoi!G15,'Bang do'!$B$8:$B$10,0),MATCH(Bangtheodoi!H15,'Bang do'!$D$2:$F$2,0))</f>
         <v>1095</v>
       </c>
-      <c r="J15" s="82" t="str">
+      <c r="J15" s="285" t="str">
         <f>+INDEX('Bang do'!$D$4:$F$6,MATCH(Bangtheodoi!G15,'Bang do'!$B$4:$B$6,0),MATCH(Bangtheodoi!H15,'Bang do'!$D$2:$F$2,0))</f>
         <v>2,47</v>
       </c>
-      <c r="K15" s="95">
+      <c r="K15" s="291">
         <v>43952</v>
       </c>
-      <c r="L15" s="95"/>
-      <c r="M15" s="82" t="str">
+      <c r="L15" s="291"/>
+      <c r="M15" s="285" t="str">
         <f>+IF(H15=HLOOKUP(G15,Sosanhheso!$B$3:$O$4,2,0),"Max hệ số","")</f>
         <v>Max hệ số</v>
       </c>
-      <c r="N15" s="82" t="s">
+      <c r="N15" s="285" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82">
+    <row r="16" spans="1:14" s="292" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="285">
         <f t="shared" ref="A16:A17" si="0">+A15+1</f>
         <v>4</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="287" t="s">
         <v>945</v>
       </c>
-      <c r="D16" s="113">
+      <c r="D16" s="288">
         <v>42522</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="82">
+      <c r="E16" s="294"/>
+      <c r="F16" s="285">
         <v>2.4700000000000002</v>
       </c>
-      <c r="G16" s="82" t="s">
+      <c r="G16" s="285" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="116">
+      <c r="I16" s="290">
         <f>+INDEX('Bang do'!$D$8:$F$10,MATCH(Bangtheodoi!G16,'Bang do'!$B$8:$B$10,0),MATCH(Bangtheodoi!H16,'Bang do'!$D$2:$F$2,0))</f>
         <v>1095</v>
       </c>
-      <c r="J16" s="82" t="str">
+      <c r="J16" s="285" t="str">
         <f>+INDEX('Bang do'!$D$4:$F$6,MATCH(Bangtheodoi!G16,'Bang do'!$B$4:$B$6,0),MATCH(Bangtheodoi!H16,'Bang do'!$D$2:$F$2,0))</f>
         <v>2,47</v>
       </c>
-      <c r="K16" s="95">
+      <c r="K16" s="291">
         <v>45566</v>
       </c>
-      <c r="L16" s="139">
+      <c r="L16" s="291">
         <f>+K16+I16</f>
         <v>46661</v>
       </c>
-      <c r="M16" s="82" t="str">
+      <c r="M16" s="285" t="str">
         <f>+IF(H16=HLOOKUP(G16,Sosanhheso!$B$3:$O$4,2,0),"Max hệ số","")</f>
         <v>Max hệ số</v>
       </c>
-      <c r="N16" s="138" t="s">
+      <c r="N16" s="293" t="s">
         <v>940</v>
       </c>
     </row>
@@ -25907,10 +25942,10 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="229" t="s">
+      <c r="A125" s="238" t="s">
         <v>124</v>
       </c>
-      <c r="B125" s="229"/>
+      <c r="B125" s="238"/>
       <c r="C125" s="111"/>
       <c r="D125" s="111"/>
       <c r="E125" s="111"/>
@@ -25925,12 +25960,12 @@
       <c r="N125" s="106"/>
     </row>
     <row r="126" spans="1:14" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="230"/>
-      <c r="B126" s="230"/>
-      <c r="C126" s="230"/>
-      <c r="D126" s="230"/>
-      <c r="E126" s="230"/>
-      <c r="F126" s="230"/>
+      <c r="A126" s="239"/>
+      <c r="B126" s="239"/>
+      <c r="C126" s="239"/>
+      <c r="D126" s="239"/>
+      <c r="E126" s="239"/>
+      <c r="F126" s="239"/>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -25943,6 +25978,13 @@
     <protectedRange sqref="A126 F126 A1:F125" name="Range1"/>
   </protectedRanges>
   <mergeCells count="21">
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -25957,13 +25999,6 @@
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="A4:N4"/>
     <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <conditionalFormatting sqref="L11 L13:L17 L37:L41 L43:L50 L52:L61 L63:L85 L26:L35">
@@ -26360,8 +26395,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AO105"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -26397,26 +26432,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="251" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="271" t="s">
+      <c r="B1" s="249" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="273" t="s">
+      <c r="C1" s="253" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="252" t="s">
+      <c r="D1" s="248" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="252"/>
-      <c r="F1" s="258"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="255"/>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="270"/>
-      <c r="B2" s="272"/>
-      <c r="C2" s="274"/>
+      <c r="A2" s="251"/>
+      <c r="B2" s="252"/>
+      <c r="C2" s="254"/>
       <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
@@ -26603,56 +26638,56 @@
       <c r="A11" s="41"/>
     </row>
     <row r="12" spans="1:11" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="243" t="s">
+      <c r="A12" s="256" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="275"/>
-      <c r="C12" s="275"/>
-      <c r="D12" s="275"/>
-      <c r="E12" s="275"/>
-      <c r="F12" s="275"/>
-      <c r="G12" s="275"/>
-      <c r="H12" s="275"/>
-      <c r="I12" s="275"/>
-      <c r="J12" s="275"/>
-      <c r="K12" s="244"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="257"/>
+      <c r="D12" s="257"/>
+      <c r="E12" s="257"/>
+      <c r="F12" s="257"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="257"/>
+      <c r="I12" s="257"/>
+      <c r="J12" s="257"/>
+      <c r="K12" s="258"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="270" t="s">
+      <c r="A13" s="251" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="252" t="s">
+      <c r="B13" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="257" t="s">
+      <c r="C13" s="259" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="259" t="s">
+      <c r="D13" s="260" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
-      <c r="H13" s="260"/>
-      <c r="I13" s="260"/>
-      <c r="J13" s="260"/>
-      <c r="K13" s="261"/>
+      <c r="E13" s="261"/>
+      <c r="F13" s="261"/>
+      <c r="G13" s="261"/>
+      <c r="H13" s="261"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="261"/>
+      <c r="K13" s="262"/>
     </row>
     <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="270"/>
-      <c r="B14" s="252"/>
-      <c r="C14" s="257"/>
-      <c r="D14" s="276"/>
-      <c r="E14" s="277"/>
-      <c r="F14" s="277"/>
-      <c r="G14" s="277"/>
-      <c r="H14" s="277"/>
-      <c r="I14" s="277"/>
-      <c r="J14" s="277"/>
-      <c r="K14" s="278"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="259"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="264"/>
+      <c r="F14" s="264"/>
+      <c r="G14" s="264"/>
+      <c r="H14" s="264"/>
+      <c r="I14" s="264"/>
+      <c r="J14" s="264"/>
+      <c r="K14" s="265"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="265" t="s">
+      <c r="A15" s="243" t="s">
         <v>147</v>
       </c>
       <c r="B15" s="37"/>
@@ -26675,7 +26710,7 @@
       <c r="K15" s="44"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="265"/>
+      <c r="A16" s="243"/>
       <c r="B16" s="23" t="s">
         <v>146</v>
       </c>
@@ -26700,7 +26735,7 @@
       <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="265"/>
+      <c r="A17" s="243"/>
       <c r="B17" s="23" t="s">
         <v>146</v>
       </c>
@@ -26729,7 +26764,7 @@
       <c r="K17" s="58"/>
     </row>
     <row r="18" spans="1:24" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="265" t="s">
+      <c r="A18" s="243" t="s">
         <v>152</v>
       </c>
       <c r="B18" s="37"/>
@@ -26771,7 +26806,7 @@
       <c r="X18" s="142"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19" s="265"/>
+      <c r="A19" s="243"/>
       <c r="B19" s="23" t="s">
         <v>151</v>
       </c>
@@ -26815,7 +26850,7 @@
       <c r="X19" s="142"/>
     </row>
     <row r="20" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="265"/>
+      <c r="A20" s="243"/>
       <c r="B20" s="23" t="s">
         <v>151</v>
       </c>
@@ -26856,7 +26891,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="265" t="s">
+      <c r="A21" s="243" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="37"/>
@@ -26881,7 +26916,7 @@
       <c r="K21" s="55"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="265"/>
+      <c r="A22" s="243"/>
       <c r="B22" s="23" t="s">
         <v>161</v>
       </c>
@@ -26908,7 +26943,7 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="265"/>
+      <c r="A23" s="243"/>
       <c r="B23" s="23" t="s">
         <v>161</v>
       </c>
@@ -26940,7 +26975,7 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="256" t="s">
+      <c r="A24" s="266" t="s">
         <v>163</v>
       </c>
       <c r="B24" s="37"/>
@@ -26965,7 +27000,7 @@
       <c r="K24" s="44"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25" s="256"/>
+      <c r="A25" s="266"/>
       <c r="B25" s="23" t="s">
         <v>203</v>
       </c>
@@ -26992,7 +27027,7 @@
       <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="279"/>
+      <c r="A26" s="267"/>
       <c r="B26" s="24" t="s">
         <v>203</v>
       </c>
@@ -27025,43 +27060,43 @@
     </row>
     <row r="27" spans="1:24" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="267" t="s">
+      <c r="A28" s="245" t="s">
         <v>192</v>
       </c>
-      <c r="B28" s="268"/>
-      <c r="C28" s="268"/>
-      <c r="D28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="268"/>
-      <c r="I28" s="268"/>
-      <c r="J28" s="269"/>
+      <c r="B28" s="246"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="246"/>
+      <c r="F28" s="246"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="246"/>
+      <c r="I28" s="246"/>
+      <c r="J28" s="247"/>
     </row>
     <row r="29" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="280" t="s">
+      <c r="A29" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="252" t="s">
+      <c r="B29" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="252" t="s">
+      <c r="C29" s="248" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="252" t="s">
+      <c r="D29" s="248" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="252"/>
-      <c r="F29" s="252"/>
-      <c r="G29" s="252"/>
-      <c r="H29" s="252"/>
-      <c r="I29" s="271"/>
-      <c r="J29" s="281"/>
+      <c r="E29" s="248"/>
+      <c r="F29" s="248"/>
+      <c r="G29" s="248"/>
+      <c r="H29" s="248"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="250"/>
     </row>
     <row r="30" spans="1:24" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="280"/>
-      <c r="B30" s="252"/>
-      <c r="C30" s="252"/>
+      <c r="A30" s="244"/>
+      <c r="B30" s="248"/>
+      <c r="C30" s="248"/>
       <c r="D30" s="6" t="s">
         <v>6</v>
       </c>
@@ -27081,7 +27116,7 @@
       <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:24" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="265" t="s">
+      <c r="A31" s="243" t="s">
         <v>168</v>
       </c>
       <c r="B31" s="23" t="s">
@@ -27109,7 +27144,7 @@
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="265"/>
+      <c r="A32" s="243"/>
       <c r="B32" s="23" t="s">
         <v>167</v>
       </c>
@@ -27135,7 +27170,7 @@
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="265" t="s">
+      <c r="A33" s="243" t="s">
         <v>171</v>
       </c>
       <c r="B33" s="37"/>
@@ -27157,7 +27192,7 @@
       <c r="J33" s="60"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="265"/>
+      <c r="A34" s="243"/>
       <c r="B34" s="23" t="s">
         <v>170</v>
       </c>
@@ -27181,7 +27216,7 @@
       <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="265"/>
+      <c r="A35" s="243"/>
       <c r="B35" s="23" t="s">
         <v>170</v>
       </c>
@@ -27205,7 +27240,7 @@
       <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="265" t="s">
+      <c r="A36" s="243" t="s">
         <v>173</v>
       </c>
       <c r="B36" s="37"/>
@@ -27223,7 +27258,7 @@
       <c r="J36" s="34"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="265"/>
+      <c r="A37" s="243"/>
       <c r="B37" s="23" t="s">
         <v>172</v>
       </c>
@@ -27243,7 +27278,7 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="265"/>
+      <c r="A38" s="243"/>
       <c r="B38" s="23" t="s">
         <v>172</v>
       </c>
@@ -27263,7 +27298,7 @@
       <c r="J38" s="58"/>
     </row>
     <row r="39" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="265" t="s">
+      <c r="A39" s="243" t="s">
         <v>174</v>
       </c>
       <c r="B39" s="37"/>
@@ -27292,7 +27327,7 @@
       <c r="K39" s="44"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="265"/>
+      <c r="A40" s="243"/>
       <c r="B40" s="23" t="s">
         <v>204</v>
       </c>
@@ -27322,7 +27357,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="266"/>
+      <c r="A41" s="281"/>
       <c r="B41" s="24" t="s">
         <v>204</v>
       </c>
@@ -27353,47 +27388,47 @@
     </row>
     <row r="42" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="267" t="s">
+      <c r="A43" s="245" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="268"/>
-      <c r="C43" s="268"/>
-      <c r="D43" s="268"/>
-      <c r="E43" s="268"/>
-      <c r="F43" s="268"/>
-      <c r="G43" s="268"/>
-      <c r="H43" s="269"/>
+      <c r="B43" s="246"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="246"/>
+      <c r="E43" s="246"/>
+      <c r="F43" s="246"/>
+      <c r="G43" s="246"/>
+      <c r="H43" s="247"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="270" t="s">
+      <c r="A44" s="251" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="252" t="s">
+      <c r="B44" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="252" t="s">
+      <c r="C44" s="248" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="259" t="s">
+      <c r="D44" s="260" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="260"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="260"/>
-      <c r="H44" s="261"/>
+      <c r="E44" s="261"/>
+      <c r="F44" s="261"/>
+      <c r="G44" s="261"/>
+      <c r="H44" s="262"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="270"/>
-      <c r="B45" s="252"/>
-      <c r="C45" s="252"/>
-      <c r="D45" s="262"/>
-      <c r="E45" s="263"/>
-      <c r="F45" s="263"/>
-      <c r="G45" s="263"/>
-      <c r="H45" s="264"/>
+      <c r="A45" s="251"/>
+      <c r="B45" s="248"/>
+      <c r="C45" s="248"/>
+      <c r="D45" s="278"/>
+      <c r="E45" s="279"/>
+      <c r="F45" s="279"/>
+      <c r="G45" s="279"/>
+      <c r="H45" s="280"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="249" t="s">
+      <c r="A46" s="272" t="s">
         <v>177</v>
       </c>
       <c r="B46" s="23"/>
@@ -27414,7 +27449,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="250"/>
+      <c r="A47" s="273"/>
       <c r="B47" s="23" t="s">
         <v>176</v>
       </c>
@@ -27438,7 +27473,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="251"/>
+      <c r="A48" s="274"/>
       <c r="B48" s="24" t="s">
         <v>176</v>
       </c>
@@ -27467,39 +27502,39 @@
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="245" t="s">
+      <c r="A50" s="268" t="s">
         <v>194</v>
       </c>
-      <c r="B50" s="246"/>
-      <c r="C50" s="246"/>
-      <c r="D50" s="246"/>
-      <c r="E50" s="246"/>
-      <c r="F50" s="246"/>
-      <c r="G50" s="246"/>
-      <c r="H50" s="255"/>
+      <c r="B50" s="269"/>
+      <c r="C50" s="269"/>
+      <c r="D50" s="269"/>
+      <c r="E50" s="269"/>
+      <c r="F50" s="269"/>
+      <c r="G50" s="269"/>
+      <c r="H50" s="277"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="256" t="s">
+      <c r="A51" s="266" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="252" t="s">
+      <c r="B51" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="257" t="s">
+      <c r="C51" s="259" t="s">
         <v>127</v>
       </c>
-      <c r="D51" s="252" t="s">
+      <c r="D51" s="248" t="s">
         <v>128</v>
       </c>
-      <c r="E51" s="252"/>
-      <c r="F51" s="252"/>
-      <c r="G51" s="252"/>
-      <c r="H51" s="258"/>
+      <c r="E51" s="248"/>
+      <c r="F51" s="248"/>
+      <c r="G51" s="248"/>
+      <c r="H51" s="255"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="256"/>
-      <c r="B52" s="252"/>
-      <c r="C52" s="257"/>
+      <c r="A52" s="266"/>
+      <c r="B52" s="248"/>
+      <c r="C52" s="259"/>
       <c r="D52" s="6" t="s">
         <v>6</v>
       </c>
@@ -27517,7 +27552,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="247" t="s">
+      <c r="A53" s="270" t="s">
         <v>179</v>
       </c>
       <c r="B53" s="29" t="s">
@@ -27543,7 +27578,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="248"/>
+      <c r="A54" s="271"/>
       <c r="B54" s="29" t="s">
         <v>178</v>
       </c>
@@ -27567,7 +27602,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="249" t="s">
+      <c r="A55" s="272" t="s">
         <v>180</v>
       </c>
       <c r="B55" s="50"/>
@@ -27585,8 +27620,8 @@
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="250"/>
-      <c r="B56" s="253" t="s">
+      <c r="A56" s="273"/>
+      <c r="B56" s="275" t="s">
         <v>181</v>
       </c>
       <c r="C56" s="7" t="s">
@@ -27605,8 +27640,8 @@
       <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="251"/>
-      <c r="B57" s="254"/>
+      <c r="A57" s="274"/>
+      <c r="B57" s="276"/>
       <c r="C57" s="17" t="s">
         <v>135</v>
       </c>
@@ -27628,10 +27663,10 @@
       <c r="H58" s="9"/>
     </row>
     <row r="59" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="243" t="s">
+      <c r="A59" s="256" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="244"/>
+      <c r="B59" s="258"/>
       <c r="C59" s="46"/>
       <c r="D59" s="47"/>
       <c r="H59" s="9"/>
@@ -27672,10 +27707,10 @@
       <c r="H63" s="9"/>
     </row>
     <row r="64" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="245" t="s">
+      <c r="A64" s="268" t="s">
         <v>197</v>
       </c>
-      <c r="B64" s="246"/>
+      <c r="B64" s="269"/>
       <c r="C64" s="62"/>
       <c r="H64" s="9"/>
     </row>
@@ -27728,12 +27763,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:H51"/>
+    <mergeCell ref="D44:H45"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="A44:A45"/>
@@ -27750,22 +27795,12 @@
     <mergeCell ref="D13:K14"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="D44:H45"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="D29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27777,7 +27812,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A3:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:O4"/>
     </sheetView>
   </sheetViews>
